--- a/conti_styled.xlsx
+++ b/conti_styled.xlsx
@@ -20,6 +20,10 @@
     <sheet name="ottobre" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="novembre" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="dicembre" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Tab_Entrate" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Tab_Uscite" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Saldo_riepilogo" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Fine" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28,10 +32,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.00 €"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00€"/>
+    <numFmt numFmtId="166" formatCode="-#,##0.00€"/>
+    <numFmt numFmtId="167" formatCode="#,## 0.00€"/>
+    <numFmt numFmtId="168" formatCode="#,## 0.00 €"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="19">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -92,6 +100,59 @@
     <font>
       <sz val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00a81a1a"/>
+      <sz val="80"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00a81a1a"/>
+      <sz val="40"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="13"/>
+    </font>
+    <font>
+      <color rgb="00000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00a81a1a"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00a81a1a"/>
+      <sz val="35"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="15"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -106,7 +167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -155,11 +216,36 @@
         <color rgb="004617F1"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border/>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="16" fillId="2" borderId="7" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -212,9 +298,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="16" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Pandas" xfId="1" hidden="0"/>
+    <cellStyle name="highlight" xfId="2" hidden="0"/>
+    <cellStyle name="black" xfId="3" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -288,6 +426,189 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="12"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Bilancio</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Saldo_riepilogo'!C2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Saldo_riepilogo'!$A$3:$A$14</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Saldo_riepilogo'!$C$3:$C$14</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Saldo_riepilogo'!D2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Saldo_riepilogo'!$A$3:$A$14</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Saldo_riepilogo'!$D$3:$D$14</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'Saldo_riepilogo'!E2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Saldo_riepilogo'!$A$3:$A$14</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Saldo_riepilogo'!$E$3:$E$14</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Mesi</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Euro</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -316,6 +637,33 @@
         </a:ln>
       </spPr>
     </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
     <clientData/>
   </oneCellAnchor>
 </wsDr>
@@ -654,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1685,6 +2033,56 @@
       </c>
       <c r="D83" s="16" t="n">
         <v>181</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" s="20" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+      <c r="D88" s="21" t="n">
+        <v>132837.28</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" s="20" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D90" s="21" t="n">
+        <v>12129.96</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" s="20" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D92" s="22" t="n">
+        <v>8247.740000000002</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" s="20" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+      <c r="D94" s="21" t="n">
+        <v>3882.219999999998</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" s="20" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
+      <c r="D96" s="24" t="n">
+        <v>124441.94</v>
       </c>
     </row>
   </sheetData>
@@ -1723,7 +2121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2794,6 +3192,56 @@
       </c>
       <c r="D85" s="16" t="n">
         <v>300</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" s="20" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+      <c r="D90" s="21" t="n">
+        <v>124441.94</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" s="20" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D92" s="21" t="n">
+        <v>13373.44</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" s="20" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D94" s="22" t="n">
+        <v>16905.13</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" s="20" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+      <c r="D96" s="23" t="n">
+        <v>-3531.689999999999</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" s="20" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
+      <c r="D98" s="24" t="n">
+        <v>116046.6</v>
       </c>
     </row>
   </sheetData>
@@ -2836,7 +3284,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4059,6 +4507,56 @@
       </c>
       <c r="D97" s="16" t="n">
         <v>322.5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" s="20" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+      <c r="D102" s="21" t="n">
+        <v>116046.6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" s="20" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D104" s="21" t="n">
+        <v>17415.43</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" s="20" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D106" s="22" t="n">
+        <v>16645.01</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" s="20" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+      <c r="D108" s="21" t="n">
+        <v>770.4200000000019</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" s="20" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
+      <c r="D110" s="24" t="n">
+        <v>107651.26</v>
       </c>
     </row>
   </sheetData>
@@ -4103,7 +4601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5206,6 +5704,56 @@
       </c>
       <c r="D88" s="16" t="n">
         <v>115</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" s="20" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+      <c r="D93" s="21" t="n">
+        <v>107651.26</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" s="20" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D95" s="21" t="n">
+        <v>18110.48</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" s="20" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D97" s="22" t="n">
+        <v>34245.8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" s="20" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+      <c r="D99" s="23" t="n">
+        <v>-16135.32</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" s="20" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
+      <c r="D101" s="24" t="n">
+        <v>99255.92000000004</v>
       </c>
     </row>
   </sheetData>
@@ -5241,13 +5789,2064 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="70" customHeight="1">
+      <c r="A1" s="25" t="inlineStr">
+        <is>
+          <t>Tabellone Entrate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1">
+      <c r="A2" s="26" t="n"/>
+      <c r="B2" s="26" t="inlineStr">
+        <is>
+          <t>agosto</t>
+        </is>
+      </c>
+      <c r="C2" s="26" t="inlineStr">
+        <is>
+          <t>aprile</t>
+        </is>
+      </c>
+      <c r="D2" s="26" t="inlineStr">
+        <is>
+          <t>dicembre</t>
+        </is>
+      </c>
+      <c r="E2" s="26" t="inlineStr">
+        <is>
+          <t>febbraio</t>
+        </is>
+      </c>
+      <c r="F2" s="26" t="inlineStr">
+        <is>
+          <t>gennaio</t>
+        </is>
+      </c>
+      <c r="G2" s="26" t="inlineStr">
+        <is>
+          <t>giugno</t>
+        </is>
+      </c>
+      <c r="H2" s="26" t="inlineStr">
+        <is>
+          <t>luglio</t>
+        </is>
+      </c>
+      <c r="I2" s="26" t="inlineStr">
+        <is>
+          <t>maggio</t>
+        </is>
+      </c>
+      <c r="J2" s="26" t="inlineStr">
+        <is>
+          <t>marzo</t>
+        </is>
+      </c>
+      <c r="K2" s="26" t="inlineStr">
+        <is>
+          <t>novembre</t>
+        </is>
+      </c>
+      <c r="L2" s="26" t="inlineStr">
+        <is>
+          <t>ottobre</t>
+        </is>
+      </c>
+      <c r="M2" s="26" t="inlineStr">
+        <is>
+          <t>settembre</t>
+        </is>
+      </c>
+      <c r="N2" s="26" t="inlineStr">
+        <is>
+          <t>TOTALE_Entrate</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="26" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" s="26" t="inlineStr">
+        <is>
+          <t>Collette-Chiesa</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>535.8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>755.41</v>
+      </c>
+      <c r="D4" t="n">
+        <v>201.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>196.22</v>
+      </c>
+      <c r="F4" t="n">
+        <v>361.62</v>
+      </c>
+      <c r="G4" t="n">
+        <v>544.8200000000001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>410</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>312</v>
+      </c>
+      <c r="L4" t="n">
+        <v>451.61</v>
+      </c>
+      <c r="M4" t="n">
+        <v>599.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4368.08</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" s="26" t="inlineStr">
+        <is>
+          <t>Congrua</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1871.73</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1819.22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3743.46</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1871.73</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1871.73</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1871.73</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1871.73</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1871.73</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1871.73</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1871.73</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1871.73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1871.73</v>
+      </c>
+      <c r="N5" t="n">
+        <v>24279.98</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" s="26" t="inlineStr">
+        <is>
+          <t>Eccedenza Cassa</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>361.85</v>
+      </c>
+      <c r="G6" t="n">
+        <v>111.77</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>473.62</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" s="26" t="inlineStr">
+        <is>
+          <t>Messe celebrate</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2130</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1860</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2090</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1720</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2240</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1930</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2220</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1940</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2090</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1990</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2280</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1950</v>
+      </c>
+      <c r="N7" t="n">
+        <v>24440</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1">
+      <c r="A8" s="26" t="inlineStr">
+        <is>
+          <t>Offerte</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3160</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6414.4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2281</v>
+      </c>
+      <c r="E8" t="n">
+        <v>843</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4366.92</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4332</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1075</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1580</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3597.2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1412</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3023</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2629</v>
+      </c>
+      <c r="N8" t="n">
+        <v>34713.52</v>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1">
+      <c r="A9" s="26" t="inlineStr">
+        <is>
+          <t>Pensioni</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2468</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2468</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4936</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2468</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2513</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2468</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2468</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2468</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2467</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2468</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2468</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2468</v>
+      </c>
+      <c r="N9" t="n">
+        <v>32128</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1">
+      <c r="A10" s="26" t="inlineStr">
+        <is>
+          <t>Predicazione</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>450</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>150</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>550</v>
+      </c>
+      <c r="L10" t="n">
+        <v>500</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1">
+      <c r="A11" s="26" t="inlineStr">
+        <is>
+          <t>Salute</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>320.84</v>
+      </c>
+      <c r="D11" t="n">
+        <v>54.02</v>
+      </c>
+      <c r="E11" t="n">
+        <v>173.63</v>
+      </c>
+      <c r="F11" t="n">
+        <v>281.53</v>
+      </c>
+      <c r="G11" t="n">
+        <v>28.25</v>
+      </c>
+      <c r="H11" t="n">
+        <v>283.78</v>
+      </c>
+      <c r="I11" t="n">
+        <v>170.83</v>
+      </c>
+      <c r="J11" t="n">
+        <v>140.21</v>
+      </c>
+      <c r="K11" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="M11" t="n">
+        <v>84.23</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1764.72</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1">
+      <c r="A12" s="26" t="inlineStr">
+        <is>
+          <t>Servizi religiosi</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>180</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1360</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1270</v>
+      </c>
+      <c r="E12" t="n">
+        <v>200</v>
+      </c>
+      <c r="F12" t="n">
+        <v>920</v>
+      </c>
+      <c r="G12" t="n">
+        <v>820</v>
+      </c>
+      <c r="H12" t="n">
+        <v>80</v>
+      </c>
+      <c r="I12" t="n">
+        <v>630</v>
+      </c>
+      <c r="J12" t="n">
+        <v>360</v>
+      </c>
+      <c r="K12" t="n">
+        <v>870</v>
+      </c>
+      <c r="L12" t="n">
+        <v>770</v>
+      </c>
+      <c r="M12" t="n">
+        <v>560</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8020</v>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1">
+      <c r="A13" s="26" t="inlineStr">
+        <is>
+          <t>Sussidi</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>160</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>160</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>160</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>544.96</v>
+      </c>
+      <c r="L13" t="n">
+        <v>160</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1184.96</v>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1">
+      <c r="A14" s="26" t="inlineStr">
+        <is>
+          <t>Vendite varie</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>868.8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1075</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3374.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6952.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>870</v>
+      </c>
+      <c r="G14" t="n">
+        <v>723</v>
+      </c>
+      <c r="H14" t="n">
+        <v>924.6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>119</v>
+      </c>
+      <c r="J14" t="n">
+        <v>205.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>7349.24</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1669.2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1967.9</v>
+      </c>
+      <c r="N14" t="n">
+        <v>26099.24</v>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1">
+      <c r="A15" s="26" t="inlineStr">
+        <is>
+          <t>TOTALE_Entrate</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>11824.33</v>
+      </c>
+      <c r="C15" t="n">
+        <v>16072.87</v>
+      </c>
+      <c r="D15" t="n">
+        <v>18110.48</v>
+      </c>
+      <c r="E15" t="n">
+        <v>14425.08</v>
+      </c>
+      <c r="F15" t="n">
+        <v>13786.65</v>
+      </c>
+      <c r="G15" t="n">
+        <v>12989.57</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9483.110000000001</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8779.559999999999</v>
+      </c>
+      <c r="J15" t="n">
+        <v>10731.64</v>
+      </c>
+      <c r="K15" t="n">
+        <v>17415.43</v>
+      </c>
+      <c r="L15" t="n">
+        <v>13373.44</v>
+      </c>
+      <c r="M15" t="n">
+        <v>12129.96</v>
+      </c>
+      <c r="N15" s="27" t="n">
+        <v>159122.12</v>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1"/>
+    <row r="17" ht="20" customHeight="1"/>
+    <row r="18" ht="20" customHeight="1"/>
+    <row r="19" ht="20" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="16" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="45" customHeight="1">
+      <c r="A1" s="25" t="inlineStr">
+        <is>
+          <t>Tabellone Uscite</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="17" customHeight="1">
+      <c r="A2" s="26" t="n"/>
+      <c r="B2" s="26" t="inlineStr">
+        <is>
+          <t>agosto</t>
+        </is>
+      </c>
+      <c r="C2" s="26" t="inlineStr">
+        <is>
+          <t>aprile</t>
+        </is>
+      </c>
+      <c r="D2" s="26" t="inlineStr">
+        <is>
+          <t>dicembre</t>
+        </is>
+      </c>
+      <c r="E2" s="26" t="inlineStr">
+        <is>
+          <t>febbraio</t>
+        </is>
+      </c>
+      <c r="F2" s="26" t="inlineStr">
+        <is>
+          <t>gennaio</t>
+        </is>
+      </c>
+      <c r="G2" s="26" t="inlineStr">
+        <is>
+          <t>giugno</t>
+        </is>
+      </c>
+      <c r="H2" s="26" t="inlineStr">
+        <is>
+          <t>luglio</t>
+        </is>
+      </c>
+      <c r="I2" s="26" t="inlineStr">
+        <is>
+          <t>maggio</t>
+        </is>
+      </c>
+      <c r="J2" s="26" t="inlineStr">
+        <is>
+          <t>marzo</t>
+        </is>
+      </c>
+      <c r="K2" s="26" t="inlineStr">
+        <is>
+          <t>novembre</t>
+        </is>
+      </c>
+      <c r="L2" s="26" t="inlineStr">
+        <is>
+          <t>ottobre</t>
+        </is>
+      </c>
+      <c r="M2" s="26" t="inlineStr">
+        <is>
+          <t>settembre</t>
+        </is>
+      </c>
+      <c r="N2" s="26" t="inlineStr">
+        <is>
+          <t>TOTALE_Uscite</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="17" customHeight="1">
+      <c r="A3" s="26" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" s="26" t="inlineStr">
+        <is>
+          <t>Acquisti convento</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1809.15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>131</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1264.76</v>
+      </c>
+      <c r="E4" t="n">
+        <v>277.95</v>
+      </c>
+      <c r="F4" t="n">
+        <v>692.7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5527.26</v>
+      </c>
+      <c r="H4" t="n">
+        <v>389.51</v>
+      </c>
+      <c r="I4" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2283.93</v>
+      </c>
+      <c r="K4" t="n">
+        <v>615.48</v>
+      </c>
+      <c r="L4" t="n">
+        <v>360</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1225.44</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14615.08</v>
+      </c>
+    </row>
+    <row r="5" ht="17" customHeight="1">
+      <c r="A5" s="26" t="inlineStr">
+        <is>
+          <t>Acquisti: Chiesa</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>135</v>
+      </c>
+      <c r="C5" t="n">
+        <v>244</v>
+      </c>
+      <c r="D5" t="n">
+        <v>173</v>
+      </c>
+      <c r="E5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F5" t="n">
+        <v>34</v>
+      </c>
+      <c r="G5" t="n">
+        <v>60</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>58</v>
+      </c>
+      <c r="K5" t="n">
+        <v>17</v>
+      </c>
+      <c r="L5" t="n">
+        <v>56</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="6" ht="17" customHeight="1">
+      <c r="A6" s="26" t="inlineStr">
+        <is>
+          <t>Acquisti: Orto, Animali</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1259.54</v>
+      </c>
+      <c r="D6" t="n">
+        <v>632.4400000000001</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3670.04</v>
+      </c>
+      <c r="F6" t="n">
+        <v>550</v>
+      </c>
+      <c r="G6" t="n">
+        <v>194.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>95</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1912.42</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2158.74</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8</v>
+      </c>
+      <c r="M6" t="n">
+        <v>150</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10631.08</v>
+      </c>
+    </row>
+    <row r="7" ht="17" customHeight="1">
+      <c r="A7" s="26" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2888.9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>175</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1123</v>
+      </c>
+      <c r="F7" t="n">
+        <v>684.71</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1200.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>47.46</v>
+      </c>
+      <c r="I7" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>594.16</v>
+      </c>
+      <c r="K7" t="n">
+        <v>974.6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>32.16</v>
+      </c>
+      <c r="M7" t="n">
+        <v>882</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8783.290000000001</v>
+      </c>
+    </row>
+    <row r="8" ht="17" customHeight="1">
+      <c r="A8" s="26" t="inlineStr">
+        <is>
+          <t>Elargizioni</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1602</v>
+      </c>
+      <c r="C8" t="n">
+        <v>721</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1466</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1292</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1347</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1332.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1175.54</v>
+      </c>
+      <c r="I8" t="n">
+        <v>632</v>
+      </c>
+      <c r="J8" t="n">
+        <v>619</v>
+      </c>
+      <c r="K8" t="n">
+        <v>719.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>617</v>
+      </c>
+      <c r="M8" t="n">
+        <v>617</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12140.34</v>
+      </c>
+    </row>
+    <row r="9" ht="17" customHeight="1">
+      <c r="A9" s="26" t="inlineStr">
+        <is>
+          <t>Energia Elettrica</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>922.46</v>
+      </c>
+      <c r="C9" t="n">
+        <v>974.13</v>
+      </c>
+      <c r="D9" t="n">
+        <v>948.12</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1046.44</v>
+      </c>
+      <c r="G9" t="n">
+        <v>876.36</v>
+      </c>
+      <c r="H9" t="n">
+        <v>903.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>888.78</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1987.61</v>
+      </c>
+      <c r="K9" t="n">
+        <v>897.51</v>
+      </c>
+      <c r="L9" t="n">
+        <v>899.02</v>
+      </c>
+      <c r="M9" t="n">
+        <v>903.5599999999999</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11247.29</v>
+      </c>
+    </row>
+    <row r="10" ht="17" customHeight="1">
+      <c r="A10" s="26" t="inlineStr">
+        <is>
+          <t>Ferie e Viaggi</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1406.05</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2089.77</v>
+      </c>
+      <c r="D10" t="n">
+        <v>643.1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>962</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1111.4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1026.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1340.81</v>
+      </c>
+      <c r="I10" t="n">
+        <v>788.7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1269.85</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1831.99</v>
+      </c>
+      <c r="L10" t="n">
+        <v>878.59</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1322.53</v>
+      </c>
+      <c r="N10" t="n">
+        <v>14671.19</v>
+      </c>
+    </row>
+    <row r="11" ht="17" customHeight="1">
+      <c r="A11" s="26" t="inlineStr">
+        <is>
+          <t>Igiene</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>160.8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>126.04</v>
+      </c>
+      <c r="E11" t="n">
+        <v>194.96</v>
+      </c>
+      <c r="F11" t="n">
+        <v>127.16</v>
+      </c>
+      <c r="G11" t="n">
+        <v>51.47</v>
+      </c>
+      <c r="H11" t="n">
+        <v>289.06</v>
+      </c>
+      <c r="I11" t="n">
+        <v>118.86</v>
+      </c>
+      <c r="J11" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="K11" t="n">
+        <v>89.05</v>
+      </c>
+      <c r="L11" t="n">
+        <v>66</v>
+      </c>
+      <c r="M11" t="n">
+        <v>173.37</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1500.7</v>
+      </c>
+    </row>
+    <row r="12" ht="17" customHeight="1">
+      <c r="A12" s="26" t="inlineStr">
+        <is>
+          <t>Imposte</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>227.1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>157</v>
+      </c>
+      <c r="E12" t="n">
+        <v>40</v>
+      </c>
+      <c r="F12" t="n">
+        <v>304.23</v>
+      </c>
+      <c r="G12" t="n">
+        <v>448.1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>27</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>126.9</v>
+      </c>
+      <c r="L12" t="n">
+        <v>250.46</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1597.29</v>
+      </c>
+    </row>
+    <row r="13" ht="17" customHeight="1">
+      <c r="A13" s="26" t="inlineStr">
+        <is>
+          <t>Lavori e Impianti</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>450</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2222</v>
+      </c>
+      <c r="D13" t="n">
+        <v>19500</v>
+      </c>
+      <c r="E13" t="n">
+        <v>16857</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6650</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7550</v>
+      </c>
+      <c r="I13" t="n">
+        <v>20000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>720</v>
+      </c>
+      <c r="L13" t="n">
+        <v>450</v>
+      </c>
+      <c r="M13" t="n">
+        <v>450</v>
+      </c>
+      <c r="N13" t="n">
+        <v>74849</v>
+      </c>
+    </row>
+    <row r="14" ht="17" customHeight="1">
+      <c r="A14" s="26" t="inlineStr">
+        <is>
+          <t>Posta e cancelleria</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>82</v>
+      </c>
+      <c r="C14" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="F14" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>106.12</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>321.52</v>
+      </c>
+    </row>
+    <row r="15" ht="17" customHeight="1">
+      <c r="A15" s="26" t="inlineStr">
+        <is>
+          <t>Rimborsi</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3097.65</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8127</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>10444.3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4405.65</v>
+      </c>
+      <c r="L15" t="n">
+        <v>8895.280000000001</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>34969.88</v>
+      </c>
+    </row>
+    <row r="16" ht="17" customHeight="1">
+      <c r="A16" s="26" t="inlineStr">
+        <is>
+          <t>Riscaldamento</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1377.38</v>
+      </c>
+      <c r="C16" t="n">
+        <v>884.0700000000001</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2261.45</v>
+      </c>
+    </row>
+    <row r="17" ht="17" customHeight="1">
+      <c r="A17" s="26" t="inlineStr">
+        <is>
+          <t>Telefono</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1791.22</v>
+      </c>
+      <c r="C17" t="n">
+        <v>280</v>
+      </c>
+      <c r="D17" t="n">
+        <v>322.5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>333.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>15</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>20</v>
+      </c>
+      <c r="L17" t="n">
+        <v>347</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3359.72</v>
+      </c>
+    </row>
+    <row r="18" ht="17" customHeight="1">
+      <c r="A18" s="26" t="inlineStr">
+        <is>
+          <t>Veicoli a motore</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6324.06</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>168</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1302</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>270</v>
+      </c>
+      <c r="J18" t="n">
+        <v>195</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1590</v>
+      </c>
+      <c r="L18" t="n">
+        <v>766</v>
+      </c>
+      <c r="M18" t="n">
+        <v>180</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10795.06</v>
+      </c>
+    </row>
+    <row r="19" ht="17" customHeight="1">
+      <c r="A19" s="26" t="inlineStr">
+        <is>
+          <t>Vestiario</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>20</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>200</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>54.98</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>62.89</v>
+      </c>
+      <c r="J19" t="n">
+        <v>55.88</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>114</v>
+      </c>
+      <c r="N19" t="n">
+        <v>509.75</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="26" t="inlineStr">
+        <is>
+          <t>Vitto</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5254.76</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1956.7</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2511.98</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1085.2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1315.05</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1792.23</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1318.9</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2546.76</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3346.34</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2370.47</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3279.62</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2227.84</v>
+      </c>
+      <c r="N20" t="n">
+        <v>29005.85</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="26" t="inlineStr">
+        <is>
+          <t>TOTALE_Uscite</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>15000.32</v>
+      </c>
+      <c r="C21" t="n">
+        <v>14021.61</v>
+      </c>
+      <c r="D21" t="n">
+        <v>34245.8</v>
+      </c>
+      <c r="E21" t="n">
+        <v>29294.45</v>
+      </c>
+      <c r="F21" t="n">
+        <v>22181.99</v>
+      </c>
+      <c r="G21" t="n">
+        <v>14117.1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>13151.58</v>
+      </c>
+      <c r="I21" t="n">
+        <v>37892.56</v>
+      </c>
+      <c r="J21" t="n">
+        <v>10486.2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>16645.01</v>
+      </c>
+      <c r="L21" t="n">
+        <v>16905.13</v>
+      </c>
+      <c r="M21" t="n">
+        <v>8247.74</v>
+      </c>
+      <c r="N21" s="27" t="n">
+        <v>232189.49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="100" customHeight="1">
+      <c r="A1" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tabella Entrate - Uscite - Saldo di ogni mese </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="29" t="inlineStr">
+        <is>
+          <t>mese</t>
+        </is>
+      </c>
+      <c r="B2" s="30" t="inlineStr">
+        <is>
+          <t>saldo_iniziale</t>
+        </is>
+      </c>
+      <c r="C2" s="30" t="inlineStr">
+        <is>
+          <t>entrate_mese</t>
+        </is>
+      </c>
+      <c r="D2" s="30" t="inlineStr">
+        <is>
+          <t>uscite_mese</t>
+        </is>
+      </c>
+      <c r="E2" s="30" t="inlineStr">
+        <is>
+          <t>saldo_finale</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="30" t="inlineStr">
+        <is>
+          <t>gennaio</t>
+        </is>
+      </c>
+      <c r="B3" s="31" t="n">
+        <v>200000</v>
+      </c>
+      <c r="C3" s="32" t="n">
+        <v>13786.65</v>
+      </c>
+      <c r="D3" s="32" t="n">
+        <v>22181.99</v>
+      </c>
+      <c r="E3" s="32" t="n">
+        <v>191604.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="30" t="inlineStr">
+        <is>
+          <t>febbraio</t>
+        </is>
+      </c>
+      <c r="B4" s="32" t="n">
+        <v>191604.66</v>
+      </c>
+      <c r="C4" s="32" t="n">
+        <v>14425.08</v>
+      </c>
+      <c r="D4" s="32" t="n">
+        <v>29294.45</v>
+      </c>
+      <c r="E4" s="32" t="n">
+        <v>183209.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="30" t="inlineStr">
+        <is>
+          <t>marzo</t>
+        </is>
+      </c>
+      <c r="B5" s="32" t="n">
+        <v>183209.32</v>
+      </c>
+      <c r="C5" s="32" t="n">
+        <v>10731.64</v>
+      </c>
+      <c r="D5" s="32" t="n">
+        <v>10486.2</v>
+      </c>
+      <c r="E5" s="32" t="n">
+        <v>174813.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="30" t="inlineStr">
+        <is>
+          <t>aprile</t>
+        </is>
+      </c>
+      <c r="B6" s="32" t="n">
+        <v>174813.98</v>
+      </c>
+      <c r="C6" s="32" t="n">
+        <v>16072.87</v>
+      </c>
+      <c r="D6" s="32" t="n">
+        <v>14021.61</v>
+      </c>
+      <c r="E6" s="32" t="n">
+        <v>166418.64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="30" t="inlineStr">
+        <is>
+          <t>maggio</t>
+        </is>
+      </c>
+      <c r="B7" s="32" t="n">
+        <v>166418.64</v>
+      </c>
+      <c r="C7" s="32" t="n">
+        <v>8779.559999999999</v>
+      </c>
+      <c r="D7" s="32" t="n">
+        <v>37892.56</v>
+      </c>
+      <c r="E7" s="32" t="n">
+        <v>158023.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="30" t="inlineStr">
+        <is>
+          <t>giugno</t>
+        </is>
+      </c>
+      <c r="B8" s="32" t="n">
+        <v>158023.3</v>
+      </c>
+      <c r="C8" s="32" t="n">
+        <v>12989.57</v>
+      </c>
+      <c r="D8" s="32" t="n">
+        <v>14117.1</v>
+      </c>
+      <c r="E8" s="32" t="n">
+        <v>149627.96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="30" t="inlineStr">
+        <is>
+          <t>luglio</t>
+        </is>
+      </c>
+      <c r="B9" s="32" t="n">
+        <v>149627.96</v>
+      </c>
+      <c r="C9" s="32" t="n">
+        <v>9483.110000000001</v>
+      </c>
+      <c r="D9" s="32" t="n">
+        <v>13151.58</v>
+      </c>
+      <c r="E9" s="32" t="n">
+        <v>141232.62</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="30" t="inlineStr">
+        <is>
+          <t>agosto</t>
+        </is>
+      </c>
+      <c r="B10" s="32" t="n">
+        <v>141232.62</v>
+      </c>
+      <c r="C10" s="32" t="n">
+        <v>11824.33</v>
+      </c>
+      <c r="D10" s="32" t="n">
+        <v>15000.32</v>
+      </c>
+      <c r="E10" s="32" t="n">
+        <v>132837.28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="30" t="inlineStr">
+        <is>
+          <t>settembre</t>
+        </is>
+      </c>
+      <c r="B11" s="32" t="n">
+        <v>132837.28</v>
+      </c>
+      <c r="C11" s="32" t="n">
+        <v>12129.96</v>
+      </c>
+      <c r="D11" s="32" t="n">
+        <v>8247.740000000002</v>
+      </c>
+      <c r="E11" s="32" t="n">
+        <v>124441.94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="30" t="inlineStr">
+        <is>
+          <t>ottobre</t>
+        </is>
+      </c>
+      <c r="B12" s="32" t="n">
+        <v>124441.94</v>
+      </c>
+      <c r="C12" s="32" t="n">
+        <v>13373.44</v>
+      </c>
+      <c r="D12" s="32" t="n">
+        <v>16905.13</v>
+      </c>
+      <c r="E12" s="32" t="n">
+        <v>116046.6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="30" t="inlineStr">
+        <is>
+          <t>novembre</t>
+        </is>
+      </c>
+      <c r="B13" s="32" t="n">
+        <v>116046.6</v>
+      </c>
+      <c r="C13" s="32" t="n">
+        <v>17415.43</v>
+      </c>
+      <c r="D13" s="32" t="n">
+        <v>16645.01</v>
+      </c>
+      <c r="E13" s="32" t="n">
+        <v>107651.26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="30" t="inlineStr">
+        <is>
+          <t>dicembre</t>
+        </is>
+      </c>
+      <c r="B14" s="32" t="n">
+        <v>107651.26</v>
+      </c>
+      <c r="C14" s="32" t="n">
+        <v>18110.48</v>
+      </c>
+      <c r="D14" s="32" t="n">
+        <v>34245.8</v>
+      </c>
+      <c r="E14" s="31" t="n">
+        <v>99255.92000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" ht="45" customHeight="1">
+      <c r="A1" s="33" t="inlineStr">
+        <is>
+          <t>Bilancio Anno ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="28" t="inlineStr">
+        <is>
+          <t>RIEPILOGO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="34" t="inlineStr">
+        <is>
+          <t>SALDO iniziale</t>
+        </is>
+      </c>
+      <c r="E10" s="35" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="34" t="inlineStr">
+        <is>
+          <t>TOTALE Entrate</t>
+        </is>
+      </c>
+      <c r="E13" s="35" t="n">
+        <v>159122.12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="34" t="inlineStr">
+        <is>
+          <t>TOTALE Uscite</t>
+        </is>
+      </c>
+      <c r="E16" s="35" t="n">
+        <v>232189.49</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="34" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO</t>
+        </is>
+      </c>
+      <c r="E19" s="35" t="n">
+        <v>-73067.37</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="34" t="inlineStr">
+        <is>
+          <t>SALDO Finale</t>
+        </is>
+      </c>
+      <c r="E22" s="35" t="n">
+        <v>99255.92000000004</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" s="36" t="inlineStr">
+        <is>
+          <t>Guardiano</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="36" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="D35" s="36" t="inlineStr">
+        <is>
+          <t>Vicario</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="36" t="inlineStr">
+        <is>
+          <t>Timbro</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="D41" s="36" t="inlineStr">
+        <is>
+          <t>Economo</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="A38:B38"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6458,6 +9057,56 @@
       </c>
       <c r="D97" s="16" t="n">
         <v>7.05</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" s="20" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+      <c r="D102" s="21" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" s="20" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D104" s="21" t="n">
+        <v>13786.65</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" s="20" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D106" s="22" t="n">
+        <v>22181.99</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" s="20" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+      <c r="D108" s="23" t="n">
+        <v>-8395.339999999998</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" s="20" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
+      <c r="D110" s="24" t="n">
+        <v>191604.66</v>
       </c>
     </row>
   </sheetData>
@@ -6499,7 +9148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7562,6 +10211,56 @@
       </c>
       <c r="D85" s="16" t="n">
         <v>109.5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" s="20" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+      <c r="D90" s="21" t="n">
+        <v>191604.66</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" s="20" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D92" s="21" t="n">
+        <v>14425.08</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" s="20" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D94" s="22" t="n">
+        <v>29294.45</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" s="20" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+      <c r="D96" s="23" t="n">
+        <v>-14869.37</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" s="20" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
+      <c r="D98" s="24" t="n">
+        <v>183209.32</v>
       </c>
     </row>
   </sheetData>
@@ -7602,7 +10301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8493,6 +11192,56 @@
       </c>
       <c r="D72" s="16" t="n">
         <v>268.12</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="20" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+      <c r="D77" s="21" t="n">
+        <v>183209.32</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="20" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D79" s="21" t="n">
+        <v>10731.64</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="20" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D81" s="22" t="n">
+        <v>10486.2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="20" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+      <c r="D83" s="21" t="n">
+        <v>245.4399999999987</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" s="20" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
+      <c r="D85" s="24" t="n">
+        <v>174813.98</v>
       </c>
     </row>
   </sheetData>
@@ -8529,7 +11278,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9656,6 +12405,56 @@
       </c>
       <c r="D90" s="16" t="n">
         <v>8.550000000000001</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" s="20" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+      <c r="D95" s="21" t="n">
+        <v>174813.98</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" s="20" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D97" s="21" t="n">
+        <v>16072.87</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" s="20" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D99" s="22" t="n">
+        <v>14021.61</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" s="20" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+      <c r="D101" s="21" t="n">
+        <v>2051.26</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" s="20" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
+      <c r="D103" s="24" t="n">
+        <v>166418.64</v>
       </c>
     </row>
   </sheetData>
@@ -9697,7 +12496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10644,6 +13443,56 @@
       </c>
       <c r="D76" s="16" t="n">
         <v>100</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="20" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+      <c r="D81" s="21" t="n">
+        <v>166418.64</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="20" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D83" s="21" t="n">
+        <v>8779.559999999999</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" s="20" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D85" s="22" t="n">
+        <v>37892.56</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="20" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+      <c r="D87" s="23" t="n">
+        <v>-29113</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="20" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
+      <c r="D89" s="24" t="n">
+        <v>158023.3</v>
       </c>
     </row>
   </sheetData>
@@ -10682,7 +13531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11785,6 +14634,56 @@
       </c>
       <c r="D88" s="16" t="n">
         <v>131.9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" s="20" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+      <c r="D93" s="21" t="n">
+        <v>158023.3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" s="20" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D95" s="21" t="n">
+        <v>12989.57</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" s="20" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D97" s="22" t="n">
+        <v>14117.1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" s="20" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+      <c r="D99" s="23" t="n">
+        <v>-1127.530000000001</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" s="20" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
+      <c r="D101" s="24" t="n">
+        <v>149627.96</v>
       </c>
     </row>
   </sheetData>
@@ -11826,7 +14725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12761,6 +15660,56 @@
       </c>
       <c r="D75" s="16" t="n">
         <v>113</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="20" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+      <c r="D80" s="21" t="n">
+        <v>149627.96</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" s="20" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D82" s="21" t="n">
+        <v>9483.110000000001</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" s="20" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D84" s="22" t="n">
+        <v>13151.58</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="20" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+      <c r="D86" s="23" t="n">
+        <v>-3668.469999999999</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" s="20" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
+      <c r="D88" s="24" t="n">
+        <v>141232.62</v>
       </c>
     </row>
   </sheetData>
@@ -12799,7 +15748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13870,6 +16819,56 @@
       </c>
       <c r="D86" s="16" t="n">
         <v>700</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" s="20" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+      <c r="D91" s="21" t="n">
+        <v>141232.62</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" s="20" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D93" s="21" t="n">
+        <v>11824.33</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" s="20" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D95" s="22" t="n">
+        <v>15000.32</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" s="20" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+      <c r="D97" s="23" t="n">
+        <v>-3175.99</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" s="20" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
+      <c r="D99" s="24" t="n">
+        <v>132837.28</v>
       </c>
     </row>
   </sheetData>

--- a/conti_styled.xlsx
+++ b/conti_styled.xlsx
@@ -6114,7 +6114,7 @@
         <v>1580</v>
       </c>
       <c r="J8" t="n">
-        <v>3597.2</v>
+        <v>3597.4</v>
       </c>
       <c r="K8" t="n">
         <v>1412</v>
@@ -6126,7 +6126,7 @@
         <v>2629</v>
       </c>
       <c r="N8" t="n">
-        <v>34713.52</v>
+        <v>34713.72</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -6436,7 +6436,7 @@
         <v>8779.559999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>10731.64</v>
+        <v>10731.84</v>
       </c>
       <c r="K15" t="n">
         <v>17415.43</v>
@@ -6448,7 +6448,7 @@
         <v>12129.96</v>
       </c>
       <c r="N15" s="27" t="n">
-        <v>159122.12</v>
+        <v>159122.32</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1"/>
@@ -7514,7 +7514,7 @@
         <v>183209.32</v>
       </c>
       <c r="C5" s="32" t="n">
-        <v>10731.64</v>
+        <v>10731.84</v>
       </c>
       <c r="D5" s="32" t="n">
         <v>10486.2</v>
@@ -7748,7 +7748,7 @@
         </is>
       </c>
       <c r="E13" s="35" t="n">
-        <v>159122.12</v>
+        <v>159122.32</v>
       </c>
     </row>
     <row r="16">
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="E19" s="35" t="n">
-        <v>-73067.37</v>
+        <v>-73067.16999999998</v>
       </c>
     </row>
     <row r="22">
@@ -10357,7 +10357,7 @@
       <c r="B7" s="11" t="inlineStr"/>
       <c r="C7" s="12" t="inlineStr"/>
       <c r="D7" s="10" t="n">
-        <v>10731.64</v>
+        <v>10731.84</v>
       </c>
     </row>
     <row r="8">
@@ -10441,7 +10441,7 @@
         </is>
       </c>
       <c r="D13" s="14" t="n">
-        <v>3597.2</v>
+        <v>3597.4</v>
       </c>
     </row>
     <row r="14">
@@ -10477,7 +10477,7 @@
         </is>
       </c>
       <c r="D16" s="16" t="n">
-        <v>1192.2</v>
+        <v>1192.4</v>
       </c>
     </row>
     <row r="17">
@@ -11211,7 +11211,7 @@
         </is>
       </c>
       <c r="D79" s="21" t="n">
-        <v>10731.64</v>
+        <v>10731.84</v>
       </c>
     </row>
     <row r="81">
@@ -11231,7 +11231,7 @@
         </is>
       </c>
       <c r="D83" s="21" t="n">
-        <v>245.4399999999987</v>
+        <v>245.6399999999994</v>
       </c>
     </row>
     <row r="85">

--- a/conti_styled.xlsx
+++ b/conti_styled.xlsx
@@ -6298,7 +6298,7 @@
         <v>630</v>
       </c>
       <c r="J12" t="n">
-        <v>360</v>
+        <v>360.1</v>
       </c>
       <c r="K12" t="n">
         <v>870</v>
@@ -6310,7 +6310,7 @@
         <v>560</v>
       </c>
       <c r="N12" t="n">
-        <v>8020</v>
+        <v>8020.1</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -6436,7 +6436,7 @@
         <v>8779.559999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>10731.84</v>
+        <v>10731.94</v>
       </c>
       <c r="K15" t="n">
         <v>17415.43</v>
@@ -6448,7 +6448,7 @@
         <v>12129.96</v>
       </c>
       <c r="N15" s="27" t="n">
-        <v>159122.32</v>
+        <v>159122.42</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1"/>
@@ -7514,7 +7514,7 @@
         <v>183209.32</v>
       </c>
       <c r="C5" s="32" t="n">
-        <v>10731.84</v>
+        <v>10731.94</v>
       </c>
       <c r="D5" s="32" t="n">
         <v>10486.2</v>
@@ -7748,7 +7748,7 @@
         </is>
       </c>
       <c r="E13" s="35" t="n">
-        <v>159122.32</v>
+        <v>159122.42</v>
       </c>
     </row>
     <row r="16">
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="E19" s="35" t="n">
-        <v>-73067.16999999998</v>
+        <v>-73067.06999999998</v>
       </c>
     </row>
     <row r="22">
@@ -10357,7 +10357,7 @@
       <c r="B7" s="11" t="inlineStr"/>
       <c r="C7" s="12" t="inlineStr"/>
       <c r="D7" s="10" t="n">
-        <v>10731.84</v>
+        <v>10731.94</v>
       </c>
     </row>
     <row r="8">
@@ -10585,7 +10585,7 @@
         </is>
       </c>
       <c r="D24" s="14" t="n">
-        <v>360</v>
+        <v>360.1</v>
       </c>
     </row>
     <row r="25">
@@ -10597,7 +10597,7 @@
         </is>
       </c>
       <c r="D25" s="16" t="n">
-        <v>360</v>
+        <v>360.1</v>
       </c>
     </row>
     <row r="26">
@@ -11211,7 +11211,7 @@
         </is>
       </c>
       <c r="D79" s="21" t="n">
-        <v>10731.84</v>
+        <v>10731.94</v>
       </c>
     </row>
     <row r="81">
@@ -11231,7 +11231,7 @@
         </is>
       </c>
       <c r="D83" s="21" t="n">
-        <v>245.6399999999994</v>
+        <v>245.7399999999998</v>
       </c>
     </row>
     <row r="85">

--- a/conti_styled.xlsx
+++ b/conti_styled.xlsx
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="D88" s="21" t="n">
-        <v>132837.28</v>
+        <v>132841.28</v>
       </c>
     </row>
     <row r="90">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="D96" s="24" t="n">
-        <v>124441.94</v>
+        <v>124446.44</v>
       </c>
     </row>
   </sheetData>
@@ -3201,7 +3201,7 @@
         </is>
       </c>
       <c r="D90" s="21" t="n">
-        <v>124441.94</v>
+        <v>124446.44</v>
       </c>
     </row>
     <row r="92">
@@ -3241,7 +3241,7 @@
         </is>
       </c>
       <c r="D98" s="24" t="n">
-        <v>116046.6</v>
+        <v>116051.6</v>
       </c>
     </row>
   </sheetData>
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="D102" s="21" t="n">
-        <v>116046.6</v>
+        <v>116051.6</v>
       </c>
     </row>
     <row r="104">
@@ -4556,7 +4556,7 @@
         </is>
       </c>
       <c r="D110" s="24" t="n">
-        <v>107651.26</v>
+        <v>107656.76</v>
       </c>
     </row>
   </sheetData>
@@ -5713,7 +5713,7 @@
         </is>
       </c>
       <c r="D93" s="21" t="n">
-        <v>107651.26</v>
+        <v>107656.76</v>
       </c>
     </row>
     <row r="95">
@@ -5753,7 +5753,7 @@
         </is>
       </c>
       <c r="D101" s="24" t="n">
-        <v>99255.92000000004</v>
+        <v>99261.92000000004</v>
       </c>
     </row>
   </sheetData>
@@ -6378,7 +6378,7 @@
         <v>6952.5</v>
       </c>
       <c r="F14" t="n">
-        <v>870</v>
+        <v>870.5</v>
       </c>
       <c r="G14" t="n">
         <v>723</v>
@@ -6402,7 +6402,7 @@
         <v>1967.9</v>
       </c>
       <c r="N14" t="n">
-        <v>26099.24</v>
+        <v>26099.74</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -6424,7 +6424,7 @@
         <v>14425.08</v>
       </c>
       <c r="F15" t="n">
-        <v>13786.65</v>
+        <v>13787.15</v>
       </c>
       <c r="G15" t="n">
         <v>12989.57</v>
@@ -6448,7 +6448,7 @@
         <v>12129.96</v>
       </c>
       <c r="N15" s="27" t="n">
-        <v>159122.42</v>
+        <v>159122.92</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1"/>
@@ -7476,13 +7476,13 @@
         <v>200000</v>
       </c>
       <c r="C3" s="32" t="n">
-        <v>13786.65</v>
+        <v>13787.15</v>
       </c>
       <c r="D3" s="32" t="n">
         <v>22181.99</v>
       </c>
       <c r="E3" s="32" t="n">
-        <v>191604.66</v>
+        <v>191605.16</v>
       </c>
     </row>
     <row r="4">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="B4" s="32" t="n">
-        <v>191604.66</v>
+        <v>191605.16</v>
       </c>
       <c r="C4" s="32" t="n">
         <v>14425.08</v>
@@ -7501,7 +7501,7 @@
         <v>29294.45</v>
       </c>
       <c r="E4" s="32" t="n">
-        <v>183209.32</v>
+        <v>183210.32</v>
       </c>
     </row>
     <row r="5">
@@ -7511,7 +7511,7 @@
         </is>
       </c>
       <c r="B5" s="32" t="n">
-        <v>183209.32</v>
+        <v>183210.32</v>
       </c>
       <c r="C5" s="32" t="n">
         <v>10731.94</v>
@@ -7520,7 +7520,7 @@
         <v>10486.2</v>
       </c>
       <c r="E5" s="32" t="n">
-        <v>174813.98</v>
+        <v>174815.48</v>
       </c>
     </row>
     <row r="6">
@@ -7530,7 +7530,7 @@
         </is>
       </c>
       <c r="B6" s="32" t="n">
-        <v>174813.98</v>
+        <v>174815.48</v>
       </c>
       <c r="C6" s="32" t="n">
         <v>16072.87</v>
@@ -7539,7 +7539,7 @@
         <v>14021.61</v>
       </c>
       <c r="E6" s="32" t="n">
-        <v>166418.64</v>
+        <v>166420.64</v>
       </c>
     </row>
     <row r="7">
@@ -7549,7 +7549,7 @@
         </is>
       </c>
       <c r="B7" s="32" t="n">
-        <v>166418.64</v>
+        <v>166420.64</v>
       </c>
       <c r="C7" s="32" t="n">
         <v>8779.559999999999</v>
@@ -7558,7 +7558,7 @@
         <v>37892.56</v>
       </c>
       <c r="E7" s="32" t="n">
-        <v>158023.3</v>
+        <v>158025.8</v>
       </c>
     </row>
     <row r="8">
@@ -7568,7 +7568,7 @@
         </is>
       </c>
       <c r="B8" s="32" t="n">
-        <v>158023.3</v>
+        <v>158025.8</v>
       </c>
       <c r="C8" s="32" t="n">
         <v>12989.57</v>
@@ -7577,7 +7577,7 @@
         <v>14117.1</v>
       </c>
       <c r="E8" s="32" t="n">
-        <v>149627.96</v>
+        <v>149630.96</v>
       </c>
     </row>
     <row r="9">
@@ -7587,7 +7587,7 @@
         </is>
       </c>
       <c r="B9" s="32" t="n">
-        <v>149627.96</v>
+        <v>149630.96</v>
       </c>
       <c r="C9" s="32" t="n">
         <v>9483.110000000001</v>
@@ -7596,7 +7596,7 @@
         <v>13151.58</v>
       </c>
       <c r="E9" s="32" t="n">
-        <v>141232.62</v>
+        <v>141236.12</v>
       </c>
     </row>
     <row r="10">
@@ -7606,7 +7606,7 @@
         </is>
       </c>
       <c r="B10" s="32" t="n">
-        <v>141232.62</v>
+        <v>141236.12</v>
       </c>
       <c r="C10" s="32" t="n">
         <v>11824.33</v>
@@ -7615,7 +7615,7 @@
         <v>15000.32</v>
       </c>
       <c r="E10" s="32" t="n">
-        <v>132837.28</v>
+        <v>132841.28</v>
       </c>
     </row>
     <row r="11">
@@ -7625,7 +7625,7 @@
         </is>
       </c>
       <c r="B11" s="32" t="n">
-        <v>132837.28</v>
+        <v>132841.28</v>
       </c>
       <c r="C11" s="32" t="n">
         <v>12129.96</v>
@@ -7634,7 +7634,7 @@
         <v>8247.740000000002</v>
       </c>
       <c r="E11" s="32" t="n">
-        <v>124441.94</v>
+        <v>124446.44</v>
       </c>
     </row>
     <row r="12">
@@ -7644,7 +7644,7 @@
         </is>
       </c>
       <c r="B12" s="32" t="n">
-        <v>124441.94</v>
+        <v>124446.44</v>
       </c>
       <c r="C12" s="32" t="n">
         <v>13373.44</v>
@@ -7653,7 +7653,7 @@
         <v>16905.13</v>
       </c>
       <c r="E12" s="32" t="n">
-        <v>116046.6</v>
+        <v>116051.6</v>
       </c>
     </row>
     <row r="13">
@@ -7663,7 +7663,7 @@
         </is>
       </c>
       <c r="B13" s="32" t="n">
-        <v>116046.6</v>
+        <v>116051.6</v>
       </c>
       <c r="C13" s="32" t="n">
         <v>17415.43</v>
@@ -7672,7 +7672,7 @@
         <v>16645.01</v>
       </c>
       <c r="E13" s="32" t="n">
-        <v>107651.26</v>
+        <v>107656.76</v>
       </c>
     </row>
     <row r="14">
@@ -7682,7 +7682,7 @@
         </is>
       </c>
       <c r="B14" s="32" t="n">
-        <v>107651.26</v>
+        <v>107656.76</v>
       </c>
       <c r="C14" s="32" t="n">
         <v>18110.48</v>
@@ -7691,7 +7691,7 @@
         <v>34245.8</v>
       </c>
       <c r="E14" s="31" t="n">
-        <v>99255.92000000004</v>
+        <v>99261.92000000004</v>
       </c>
     </row>
   </sheetData>
@@ -7748,7 +7748,7 @@
         </is>
       </c>
       <c r="E13" s="35" t="n">
-        <v>159122.42</v>
+        <v>159122.92</v>
       </c>
     </row>
     <row r="16">
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="E19" s="35" t="n">
-        <v>-73067.06999999998</v>
+        <v>-73066.56999999998</v>
       </c>
     </row>
     <row r="22">
@@ -7778,7 +7778,7 @@
         </is>
       </c>
       <c r="E22" s="35" t="n">
-        <v>99255.92000000004</v>
+        <v>99261.92000000004</v>
       </c>
     </row>
     <row r="29">
@@ -7902,7 +7902,7 @@
       <c r="B7" s="11" t="inlineStr"/>
       <c r="C7" s="12" t="inlineStr"/>
       <c r="D7" s="10" t="n">
-        <v>13786.65</v>
+        <v>13787.15</v>
       </c>
     </row>
     <row r="8">
@@ -8238,7 +8238,7 @@
         </is>
       </c>
       <c r="D32" s="14" t="n">
-        <v>870</v>
+        <v>870.5</v>
       </c>
     </row>
     <row r="33">
@@ -8298,7 +8298,7 @@
         </is>
       </c>
       <c r="D37" s="16" t="n">
-        <v>463</v>
+        <v>463.5</v>
       </c>
     </row>
     <row r="38">
@@ -9076,7 +9076,7 @@
         </is>
       </c>
       <c r="D104" s="21" t="n">
-        <v>13786.65</v>
+        <v>13787.15</v>
       </c>
     </row>
     <row r="106">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="D108" s="23" t="n">
-        <v>-8395.339999999998</v>
+        <v>-8394.839999999998</v>
       </c>
     </row>
     <row r="110">
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="D110" s="24" t="n">
-        <v>191604.66</v>
+        <v>191605.16</v>
       </c>
     </row>
   </sheetData>
@@ -10220,7 +10220,7 @@
         </is>
       </c>
       <c r="D90" s="21" t="n">
-        <v>191604.66</v>
+        <v>191605.16</v>
       </c>
     </row>
     <row r="92">
@@ -10260,7 +10260,7 @@
         </is>
       </c>
       <c r="D98" s="24" t="n">
-        <v>183209.32</v>
+        <v>183210.32</v>
       </c>
     </row>
   </sheetData>
@@ -11201,7 +11201,7 @@
         </is>
       </c>
       <c r="D77" s="21" t="n">
-        <v>183209.32</v>
+        <v>183210.32</v>
       </c>
     </row>
     <row r="79">
@@ -11241,7 +11241,7 @@
         </is>
       </c>
       <c r="D85" s="24" t="n">
-        <v>174813.98</v>
+        <v>174815.48</v>
       </c>
     </row>
   </sheetData>
@@ -12414,7 +12414,7 @@
         </is>
       </c>
       <c r="D95" s="21" t="n">
-        <v>174813.98</v>
+        <v>174815.48</v>
       </c>
     </row>
     <row r="97">
@@ -12454,7 +12454,7 @@
         </is>
       </c>
       <c r="D103" s="24" t="n">
-        <v>166418.64</v>
+        <v>166420.64</v>
       </c>
     </row>
   </sheetData>
@@ -13452,7 +13452,7 @@
         </is>
       </c>
       <c r="D81" s="21" t="n">
-        <v>166418.64</v>
+        <v>166420.64</v>
       </c>
     </row>
     <row r="83">
@@ -13492,7 +13492,7 @@
         </is>
       </c>
       <c r="D89" s="24" t="n">
-        <v>158023.3</v>
+        <v>158025.8</v>
       </c>
     </row>
   </sheetData>
@@ -14643,7 +14643,7 @@
         </is>
       </c>
       <c r="D93" s="21" t="n">
-        <v>158023.3</v>
+        <v>158025.8</v>
       </c>
     </row>
     <row r="95">
@@ -14683,7 +14683,7 @@
         </is>
       </c>
       <c r="D101" s="24" t="n">
-        <v>149627.96</v>
+        <v>149630.96</v>
       </c>
     </row>
   </sheetData>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D80" s="21" t="n">
-        <v>149627.96</v>
+        <v>149630.96</v>
       </c>
     </row>
     <row r="82">
@@ -15709,7 +15709,7 @@
         </is>
       </c>
       <c r="D88" s="24" t="n">
-        <v>141232.62</v>
+        <v>141236.12</v>
       </c>
     </row>
   </sheetData>
@@ -16828,7 +16828,7 @@
         </is>
       </c>
       <c r="D91" s="21" t="n">
-        <v>141232.62</v>
+        <v>141236.12</v>
       </c>
     </row>
     <row r="93">
@@ -16868,7 +16868,7 @@
         </is>
       </c>
       <c r="D99" s="24" t="n">
-        <v>132837.28</v>
+        <v>132841.28</v>
       </c>
     </row>
   </sheetData>

--- a/conti_styled.xlsx
+++ b/conti_styled.xlsx
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="D88" s="21" t="n">
-        <v>132841.28</v>
+        <v>132842.0800000001</v>
       </c>
     </row>
     <row r="90">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="D96" s="24" t="n">
-        <v>124446.44</v>
+        <v>124447.3400000001</v>
       </c>
     </row>
   </sheetData>
@@ -3201,7 +3201,7 @@
         </is>
       </c>
       <c r="D90" s="21" t="n">
-        <v>124446.44</v>
+        <v>124447.3400000001</v>
       </c>
     </row>
     <row r="92">
@@ -3241,7 +3241,7 @@
         </is>
       </c>
       <c r="D98" s="24" t="n">
-        <v>116051.6</v>
+        <v>116052.6000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="D102" s="21" t="n">
-        <v>116051.6</v>
+        <v>116052.6000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4556,7 +4556,7 @@
         </is>
       </c>
       <c r="D110" s="24" t="n">
-        <v>107656.76</v>
+        <v>107657.8600000001</v>
       </c>
     </row>
   </sheetData>
@@ -5713,7 +5713,7 @@
         </is>
       </c>
       <c r="D93" s="21" t="n">
-        <v>107656.76</v>
+        <v>107657.8600000001</v>
       </c>
     </row>
     <row r="95">
@@ -5753,7 +5753,7 @@
         </is>
       </c>
       <c r="D101" s="24" t="n">
-        <v>99261.92000000004</v>
+        <v>99263.12000000011</v>
       </c>
     </row>
   </sheetData>
@@ -6286,7 +6286,7 @@
         <v>200</v>
       </c>
       <c r="F12" t="n">
-        <v>920</v>
+        <v>920.1</v>
       </c>
       <c r="G12" t="n">
         <v>820</v>
@@ -6310,7 +6310,7 @@
         <v>560</v>
       </c>
       <c r="N12" t="n">
-        <v>8020.1</v>
+        <v>8020.2</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -6424,7 +6424,7 @@
         <v>14425.08</v>
       </c>
       <c r="F15" t="n">
-        <v>13787.15</v>
+        <v>13787.25</v>
       </c>
       <c r="G15" t="n">
         <v>12989.57</v>
@@ -6448,7 +6448,7 @@
         <v>12129.96</v>
       </c>
       <c r="N15" s="27" t="n">
-        <v>159122.92</v>
+        <v>159123.02</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1"/>
@@ -7476,13 +7476,13 @@
         <v>200000</v>
       </c>
       <c r="C3" s="32" t="n">
-        <v>13787.15</v>
+        <v>13787.25</v>
       </c>
       <c r="D3" s="32" t="n">
         <v>22181.99</v>
       </c>
       <c r="E3" s="32" t="n">
-        <v>191605.16</v>
+        <v>191605.26</v>
       </c>
     </row>
     <row r="4">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="B4" s="32" t="n">
-        <v>191605.16</v>
+        <v>191605.26</v>
       </c>
       <c r="C4" s="32" t="n">
         <v>14425.08</v>
@@ -7501,7 +7501,7 @@
         <v>29294.45</v>
       </c>
       <c r="E4" s="32" t="n">
-        <v>183210.32</v>
+        <v>183210.52</v>
       </c>
     </row>
     <row r="5">
@@ -7511,7 +7511,7 @@
         </is>
       </c>
       <c r="B5" s="32" t="n">
-        <v>183210.32</v>
+        <v>183210.52</v>
       </c>
       <c r="C5" s="32" t="n">
         <v>10731.94</v>
@@ -7520,7 +7520,7 @@
         <v>10486.2</v>
       </c>
       <c r="E5" s="32" t="n">
-        <v>174815.48</v>
+        <v>174815.78</v>
       </c>
     </row>
     <row r="6">
@@ -7530,7 +7530,7 @@
         </is>
       </c>
       <c r="B6" s="32" t="n">
-        <v>174815.48</v>
+        <v>174815.78</v>
       </c>
       <c r="C6" s="32" t="n">
         <v>16072.87</v>
@@ -7539,7 +7539,7 @@
         <v>14021.61</v>
       </c>
       <c r="E6" s="32" t="n">
-        <v>166420.64</v>
+        <v>166421.04</v>
       </c>
     </row>
     <row r="7">
@@ -7549,7 +7549,7 @@
         </is>
       </c>
       <c r="B7" s="32" t="n">
-        <v>166420.64</v>
+        <v>166421.04</v>
       </c>
       <c r="C7" s="32" t="n">
         <v>8779.559999999999</v>
@@ -7558,7 +7558,7 @@
         <v>37892.56</v>
       </c>
       <c r="E7" s="32" t="n">
-        <v>158025.8</v>
+        <v>158026.3</v>
       </c>
     </row>
     <row r="8">
@@ -7568,7 +7568,7 @@
         </is>
       </c>
       <c r="B8" s="32" t="n">
-        <v>158025.8</v>
+        <v>158026.3</v>
       </c>
       <c r="C8" s="32" t="n">
         <v>12989.57</v>
@@ -7577,7 +7577,7 @@
         <v>14117.1</v>
       </c>
       <c r="E8" s="32" t="n">
-        <v>149630.96</v>
+        <v>149631.5600000001</v>
       </c>
     </row>
     <row r="9">
@@ -7587,7 +7587,7 @@
         </is>
       </c>
       <c r="B9" s="32" t="n">
-        <v>149630.96</v>
+        <v>149631.5600000001</v>
       </c>
       <c r="C9" s="32" t="n">
         <v>9483.110000000001</v>
@@ -7596,7 +7596,7 @@
         <v>13151.58</v>
       </c>
       <c r="E9" s="32" t="n">
-        <v>141236.12</v>
+        <v>141236.8200000001</v>
       </c>
     </row>
     <row r="10">
@@ -7606,7 +7606,7 @@
         </is>
       </c>
       <c r="B10" s="32" t="n">
-        <v>141236.12</v>
+        <v>141236.8200000001</v>
       </c>
       <c r="C10" s="32" t="n">
         <v>11824.33</v>
@@ -7615,7 +7615,7 @@
         <v>15000.32</v>
       </c>
       <c r="E10" s="32" t="n">
-        <v>132841.28</v>
+        <v>132842.0800000001</v>
       </c>
     </row>
     <row r="11">
@@ -7625,7 +7625,7 @@
         </is>
       </c>
       <c r="B11" s="32" t="n">
-        <v>132841.28</v>
+        <v>132842.0800000001</v>
       </c>
       <c r="C11" s="32" t="n">
         <v>12129.96</v>
@@ -7634,7 +7634,7 @@
         <v>8247.740000000002</v>
       </c>
       <c r="E11" s="32" t="n">
-        <v>124446.44</v>
+        <v>124447.3400000001</v>
       </c>
     </row>
     <row r="12">
@@ -7644,7 +7644,7 @@
         </is>
       </c>
       <c r="B12" s="32" t="n">
-        <v>124446.44</v>
+        <v>124447.3400000001</v>
       </c>
       <c r="C12" s="32" t="n">
         <v>13373.44</v>
@@ -7653,7 +7653,7 @@
         <v>16905.13</v>
       </c>
       <c r="E12" s="32" t="n">
-        <v>116051.6</v>
+        <v>116052.6000000001</v>
       </c>
     </row>
     <row r="13">
@@ -7663,7 +7663,7 @@
         </is>
       </c>
       <c r="B13" s="32" t="n">
-        <v>116051.6</v>
+        <v>116052.6000000001</v>
       </c>
       <c r="C13" s="32" t="n">
         <v>17415.43</v>
@@ -7672,7 +7672,7 @@
         <v>16645.01</v>
       </c>
       <c r="E13" s="32" t="n">
-        <v>107656.76</v>
+        <v>107657.8600000001</v>
       </c>
     </row>
     <row r="14">
@@ -7682,7 +7682,7 @@
         </is>
       </c>
       <c r="B14" s="32" t="n">
-        <v>107656.76</v>
+        <v>107657.8600000001</v>
       </c>
       <c r="C14" s="32" t="n">
         <v>18110.48</v>
@@ -7691,7 +7691,7 @@
         <v>34245.8</v>
       </c>
       <c r="E14" s="31" t="n">
-        <v>99261.92000000004</v>
+        <v>99263.12000000011</v>
       </c>
     </row>
   </sheetData>
@@ -7748,7 +7748,7 @@
         </is>
       </c>
       <c r="E13" s="35" t="n">
-        <v>159122.92</v>
+        <v>159123.02</v>
       </c>
     </row>
     <row r="16">
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="E19" s="35" t="n">
-        <v>-73066.56999999998</v>
+        <v>-73066.47</v>
       </c>
     </row>
     <row r="22">
@@ -7778,7 +7778,7 @@
         </is>
       </c>
       <c r="E22" s="35" t="n">
-        <v>99261.92000000004</v>
+        <v>99263.12000000011</v>
       </c>
     </row>
     <row r="29">
@@ -7902,7 +7902,7 @@
       <c r="B7" s="11" t="inlineStr"/>
       <c r="C7" s="12" t="inlineStr"/>
       <c r="D7" s="10" t="n">
-        <v>13787.15</v>
+        <v>13787.25</v>
       </c>
     </row>
     <row r="8">
@@ -8198,7 +8198,7 @@
         </is>
       </c>
       <c r="D29" s="14" t="n">
-        <v>920</v>
+        <v>920.1</v>
       </c>
     </row>
     <row r="30">
@@ -8210,7 +8210,7 @@
         </is>
       </c>
       <c r="D30" s="16" t="n">
-        <v>720</v>
+        <v>720.1</v>
       </c>
     </row>
     <row r="31">
@@ -9076,7 +9076,7 @@
         </is>
       </c>
       <c r="D104" s="21" t="n">
-        <v>13787.15</v>
+        <v>13787.25</v>
       </c>
     </row>
     <row r="106">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="D108" s="23" t="n">
-        <v>-8394.839999999998</v>
+        <v>-8394.739999999998</v>
       </c>
     </row>
     <row r="110">
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="D110" s="24" t="n">
-        <v>191605.16</v>
+        <v>191605.26</v>
       </c>
     </row>
   </sheetData>
@@ -10220,7 +10220,7 @@
         </is>
       </c>
       <c r="D90" s="21" t="n">
-        <v>191605.16</v>
+        <v>191605.26</v>
       </c>
     </row>
     <row r="92">
@@ -10260,7 +10260,7 @@
         </is>
       </c>
       <c r="D98" s="24" t="n">
-        <v>183210.32</v>
+        <v>183210.52</v>
       </c>
     </row>
   </sheetData>
@@ -11201,7 +11201,7 @@
         </is>
       </c>
       <c r="D77" s="21" t="n">
-        <v>183210.32</v>
+        <v>183210.52</v>
       </c>
     </row>
     <row r="79">
@@ -11241,7 +11241,7 @@
         </is>
       </c>
       <c r="D85" s="24" t="n">
-        <v>174815.48</v>
+        <v>174815.78</v>
       </c>
     </row>
   </sheetData>
@@ -12414,7 +12414,7 @@
         </is>
       </c>
       <c r="D95" s="21" t="n">
-        <v>174815.48</v>
+        <v>174815.78</v>
       </c>
     </row>
     <row r="97">
@@ -12454,7 +12454,7 @@
         </is>
       </c>
       <c r="D103" s="24" t="n">
-        <v>166420.64</v>
+        <v>166421.04</v>
       </c>
     </row>
   </sheetData>
@@ -13452,7 +13452,7 @@
         </is>
       </c>
       <c r="D81" s="21" t="n">
-        <v>166420.64</v>
+        <v>166421.04</v>
       </c>
     </row>
     <row r="83">
@@ -13492,7 +13492,7 @@
         </is>
       </c>
       <c r="D89" s="24" t="n">
-        <v>158025.8</v>
+        <v>158026.3</v>
       </c>
     </row>
   </sheetData>
@@ -14643,7 +14643,7 @@
         </is>
       </c>
       <c r="D93" s="21" t="n">
-        <v>158025.8</v>
+        <v>158026.3</v>
       </c>
     </row>
     <row r="95">
@@ -14683,7 +14683,7 @@
         </is>
       </c>
       <c r="D101" s="24" t="n">
-        <v>149630.96</v>
+        <v>149631.5600000001</v>
       </c>
     </row>
   </sheetData>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D80" s="21" t="n">
-        <v>149630.96</v>
+        <v>149631.5600000001</v>
       </c>
     </row>
     <row r="82">
@@ -15709,7 +15709,7 @@
         </is>
       </c>
       <c r="D88" s="24" t="n">
-        <v>141236.12</v>
+        <v>141236.8200000001</v>
       </c>
     </row>
   </sheetData>
@@ -16828,7 +16828,7 @@
         </is>
       </c>
       <c r="D91" s="21" t="n">
-        <v>141236.12</v>
+        <v>141236.8200000001</v>
       </c>
     </row>
     <row r="93">
@@ -16868,7 +16868,7 @@
         </is>
       </c>
       <c r="D99" s="24" t="n">
-        <v>132841.28</v>
+        <v>132842.0800000001</v>
       </c>
     </row>
   </sheetData>

--- a/conti_styled.xlsx
+++ b/conti_styled.xlsx
@@ -32,12 +32,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.00 €"/>
     <numFmt numFmtId="165" formatCode="#,##0.00€"/>
     <numFmt numFmtId="166" formatCode="-#,##0.00€"/>
-    <numFmt numFmtId="167" formatCode="#,## 0.00€"/>
-    <numFmt numFmtId="168" formatCode="#,## 0.00 €"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -238,14 +236,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="2" borderId="7" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="7" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -310,16 +308,13 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -329,10 +324,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -341,7 +336,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
@@ -2081,7 +2076,7 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D96" s="24" t="n">
+      <c r="D96" s="21" t="n">
         <v>124447.3400000001</v>
       </c>
     </row>
@@ -3240,7 +3235,7 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D98" s="24" t="n">
+      <c r="D98" s="21" t="n">
         <v>116052.6000000001</v>
       </c>
     </row>
@@ -4555,7 +4550,7 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D110" s="24" t="n">
+      <c r="D110" s="21" t="n">
         <v>107657.8600000001</v>
       </c>
     </row>
@@ -5752,7 +5747,7 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D101" s="24" t="n">
+      <c r="D101" s="21" t="n">
         <v>99263.12000000011</v>
       </c>
     </row>
@@ -5818,89 +5813,89 @@
   </cols>
   <sheetData>
     <row r="1" ht="70" customHeight="1">
-      <c r="A1" s="25" t="inlineStr">
+      <c r="A1" s="24" t="inlineStr">
         <is>
           <t>Tabellone Entrate</t>
         </is>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="26" t="n"/>
-      <c r="B2" s="26" t="inlineStr">
+      <c r="A2" s="25" t="n"/>
+      <c r="B2" s="25" t="inlineStr">
         <is>
           <t>agosto</t>
         </is>
       </c>
-      <c r="C2" s="26" t="inlineStr">
+      <c r="C2" s="25" t="inlineStr">
         <is>
           <t>aprile</t>
         </is>
       </c>
-      <c r="D2" s="26" t="inlineStr">
+      <c r="D2" s="25" t="inlineStr">
         <is>
           <t>dicembre</t>
         </is>
       </c>
-      <c r="E2" s="26" t="inlineStr">
+      <c r="E2" s="25" t="inlineStr">
         <is>
           <t>febbraio</t>
         </is>
       </c>
-      <c r="F2" s="26" t="inlineStr">
+      <c r="F2" s="25" t="inlineStr">
         <is>
           <t>gennaio</t>
         </is>
       </c>
-      <c r="G2" s="26" t="inlineStr">
+      <c r="G2" s="25" t="inlineStr">
         <is>
           <t>giugno</t>
         </is>
       </c>
-      <c r="H2" s="26" t="inlineStr">
+      <c r="H2" s="25" t="inlineStr">
         <is>
           <t>luglio</t>
         </is>
       </c>
-      <c r="I2" s="26" t="inlineStr">
+      <c r="I2" s="25" t="inlineStr">
         <is>
           <t>maggio</t>
         </is>
       </c>
-      <c r="J2" s="26" t="inlineStr">
+      <c r="J2" s="25" t="inlineStr">
         <is>
           <t>marzo</t>
         </is>
       </c>
-      <c r="K2" s="26" t="inlineStr">
+      <c r="K2" s="25" t="inlineStr">
         <is>
           <t>novembre</t>
         </is>
       </c>
-      <c r="L2" s="26" t="inlineStr">
+      <c r="L2" s="25" t="inlineStr">
         <is>
           <t>ottobre</t>
         </is>
       </c>
-      <c r="M2" s="26" t="inlineStr">
+      <c r="M2" s="25" t="inlineStr">
         <is>
           <t>settembre</t>
         </is>
       </c>
-      <c r="N2" s="26" t="inlineStr">
+      <c r="N2" s="25" t="inlineStr">
         <is>
           <t>TOTALE_Entrate</t>
         </is>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="26" t="inlineStr">
+      <c r="A3" s="25" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="26" t="inlineStr">
+      <c r="A4" s="25" t="inlineStr">
         <is>
           <t>Collette-Chiesa</t>
         </is>
@@ -5946,7 +5941,7 @@
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="26" t="inlineStr">
+      <c r="A5" s="25" t="inlineStr">
         <is>
           <t>Congrua</t>
         </is>
@@ -5992,7 +5987,7 @@
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="26" t="inlineStr">
+      <c r="A6" s="25" t="inlineStr">
         <is>
           <t>Eccedenza Cassa</t>
         </is>
@@ -6038,7 +6033,7 @@
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="26" t="inlineStr">
+      <c r="A7" s="25" t="inlineStr">
         <is>
           <t>Messe celebrate</t>
         </is>
@@ -6084,7 +6079,7 @@
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
-      <c r="A8" s="26" t="inlineStr">
+      <c r="A8" s="25" t="inlineStr">
         <is>
           <t>Offerte</t>
         </is>
@@ -6130,7 +6125,7 @@
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="26" t="inlineStr">
+      <c r="A9" s="25" t="inlineStr">
         <is>
           <t>Pensioni</t>
         </is>
@@ -6176,7 +6171,7 @@
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="26" t="inlineStr">
+      <c r="A10" s="25" t="inlineStr">
         <is>
           <t>Predicazione</t>
         </is>
@@ -6222,7 +6217,7 @@
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
-      <c r="A11" s="26" t="inlineStr">
+      <c r="A11" s="25" t="inlineStr">
         <is>
           <t>Salute</t>
         </is>
@@ -6268,7 +6263,7 @@
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
-      <c r="A12" s="26" t="inlineStr">
+      <c r="A12" s="25" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
         </is>
@@ -6314,7 +6309,7 @@
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
-      <c r="A13" s="26" t="inlineStr">
+      <c r="A13" s="25" t="inlineStr">
         <is>
           <t>Sussidi</t>
         </is>
@@ -6360,7 +6355,7 @@
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
-      <c r="A14" s="26" t="inlineStr">
+      <c r="A14" s="25" t="inlineStr">
         <is>
           <t>Vendite varie</t>
         </is>
@@ -6406,7 +6401,7 @@
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
-      <c r="A15" s="26" t="inlineStr">
+      <c r="A15" s="25" t="inlineStr">
         <is>
           <t>TOTALE_Entrate</t>
         </is>
@@ -6447,7 +6442,7 @@
       <c r="M15" t="n">
         <v>12129.96</v>
       </c>
-      <c r="N15" s="27" t="n">
+      <c r="N15" s="26" t="n">
         <v>159123.02</v>
       </c>
     </row>
@@ -6493,89 +6488,89 @@
   </cols>
   <sheetData>
     <row r="1" ht="45" customHeight="1">
-      <c r="A1" s="25" t="inlineStr">
+      <c r="A1" s="24" t="inlineStr">
         <is>
           <t>Tabellone Uscite</t>
         </is>
       </c>
     </row>
     <row r="2" ht="17" customHeight="1">
-      <c r="A2" s="26" t="n"/>
-      <c r="B2" s="26" t="inlineStr">
+      <c r="A2" s="25" t="n"/>
+      <c r="B2" s="25" t="inlineStr">
         <is>
           <t>agosto</t>
         </is>
       </c>
-      <c r="C2" s="26" t="inlineStr">
+      <c r="C2" s="25" t="inlineStr">
         <is>
           <t>aprile</t>
         </is>
       </c>
-      <c r="D2" s="26" t="inlineStr">
+      <c r="D2" s="25" t="inlineStr">
         <is>
           <t>dicembre</t>
         </is>
       </c>
-      <c r="E2" s="26" t="inlineStr">
+      <c r="E2" s="25" t="inlineStr">
         <is>
           <t>febbraio</t>
         </is>
       </c>
-      <c r="F2" s="26" t="inlineStr">
+      <c r="F2" s="25" t="inlineStr">
         <is>
           <t>gennaio</t>
         </is>
       </c>
-      <c r="G2" s="26" t="inlineStr">
+      <c r="G2" s="25" t="inlineStr">
         <is>
           <t>giugno</t>
         </is>
       </c>
-      <c r="H2" s="26" t="inlineStr">
+      <c r="H2" s="25" t="inlineStr">
         <is>
           <t>luglio</t>
         </is>
       </c>
-      <c r="I2" s="26" t="inlineStr">
+      <c r="I2" s="25" t="inlineStr">
         <is>
           <t>maggio</t>
         </is>
       </c>
-      <c r="J2" s="26" t="inlineStr">
+      <c r="J2" s="25" t="inlineStr">
         <is>
           <t>marzo</t>
         </is>
       </c>
-      <c r="K2" s="26" t="inlineStr">
+      <c r="K2" s="25" t="inlineStr">
         <is>
           <t>novembre</t>
         </is>
       </c>
-      <c r="L2" s="26" t="inlineStr">
+      <c r="L2" s="25" t="inlineStr">
         <is>
           <t>ottobre</t>
         </is>
       </c>
-      <c r="M2" s="26" t="inlineStr">
+      <c r="M2" s="25" t="inlineStr">
         <is>
           <t>settembre</t>
         </is>
       </c>
-      <c r="N2" s="26" t="inlineStr">
+      <c r="N2" s="25" t="inlineStr">
         <is>
           <t>TOTALE_Uscite</t>
         </is>
       </c>
     </row>
     <row r="3" ht="17" customHeight="1">
-      <c r="A3" s="26" t="inlineStr">
+      <c r="A3" s="25" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="26" t="inlineStr">
+      <c r="A4" s="25" t="inlineStr">
         <is>
           <t>Acquisti convento</t>
         </is>
@@ -6621,7 +6616,7 @@
       </c>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="26" t="inlineStr">
+      <c r="A5" s="25" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
         </is>
@@ -6667,7 +6662,7 @@
       </c>
     </row>
     <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="26" t="inlineStr">
+      <c r="A6" s="25" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
         </is>
@@ -6713,7 +6708,7 @@
       </c>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="26" t="inlineStr">
+      <c r="A7" s="25" t="inlineStr">
         <is>
           <t>Cultura</t>
         </is>
@@ -6759,7 +6754,7 @@
       </c>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="26" t="inlineStr">
+      <c r="A8" s="25" t="inlineStr">
         <is>
           <t>Elargizioni</t>
         </is>
@@ -6805,7 +6800,7 @@
       </c>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="26" t="inlineStr">
+      <c r="A9" s="25" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
         </is>
@@ -6851,7 +6846,7 @@
       </c>
     </row>
     <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="26" t="inlineStr">
+      <c r="A10" s="25" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
         </is>
@@ -6897,7 +6892,7 @@
       </c>
     </row>
     <row r="11" ht="17" customHeight="1">
-      <c r="A11" s="26" t="inlineStr">
+      <c r="A11" s="25" t="inlineStr">
         <is>
           <t>Igiene</t>
         </is>
@@ -6943,7 +6938,7 @@
       </c>
     </row>
     <row r="12" ht="17" customHeight="1">
-      <c r="A12" s="26" t="inlineStr">
+      <c r="A12" s="25" t="inlineStr">
         <is>
           <t>Imposte</t>
         </is>
@@ -6989,7 +6984,7 @@
       </c>
     </row>
     <row r="13" ht="17" customHeight="1">
-      <c r="A13" s="26" t="inlineStr">
+      <c r="A13" s="25" t="inlineStr">
         <is>
           <t>Lavori e Impianti</t>
         </is>
@@ -7035,7 +7030,7 @@
       </c>
     </row>
     <row r="14" ht="17" customHeight="1">
-      <c r="A14" s="26" t="inlineStr">
+      <c r="A14" s="25" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
         </is>
@@ -7081,7 +7076,7 @@
       </c>
     </row>
     <row r="15" ht="17" customHeight="1">
-      <c r="A15" s="26" t="inlineStr">
+      <c r="A15" s="25" t="inlineStr">
         <is>
           <t>Rimborsi</t>
         </is>
@@ -7127,7 +7122,7 @@
       </c>
     </row>
     <row r="16" ht="17" customHeight="1">
-      <c r="A16" s="26" t="inlineStr">
+      <c r="A16" s="25" t="inlineStr">
         <is>
           <t>Riscaldamento</t>
         </is>
@@ -7173,7 +7168,7 @@
       </c>
     </row>
     <row r="17" ht="17" customHeight="1">
-      <c r="A17" s="26" t="inlineStr">
+      <c r="A17" s="25" t="inlineStr">
         <is>
           <t>Telefono</t>
         </is>
@@ -7219,7 +7214,7 @@
       </c>
     </row>
     <row r="18" ht="17" customHeight="1">
-      <c r="A18" s="26" t="inlineStr">
+      <c r="A18" s="25" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
         </is>
@@ -7265,7 +7260,7 @@
       </c>
     </row>
     <row r="19" ht="17" customHeight="1">
-      <c r="A19" s="26" t="inlineStr">
+      <c r="A19" s="25" t="inlineStr">
         <is>
           <t>Vestiario</t>
         </is>
@@ -7311,7 +7306,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="26" t="inlineStr">
+      <c r="A20" s="25" t="inlineStr">
         <is>
           <t>Vitto</t>
         </is>
@@ -7357,7 +7352,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="26" t="inlineStr">
+      <c r="A21" s="25" t="inlineStr">
         <is>
           <t>TOTALE_Uscite</t>
         </is>
@@ -7398,7 +7393,7 @@
       <c r="M21" t="n">
         <v>8247.74</v>
       </c>
-      <c r="N21" s="27" t="n">
+      <c r="N21" s="26" t="n">
         <v>232189.49</v>
       </c>
     </row>
@@ -7433,264 +7428,264 @@
   </cols>
   <sheetData>
     <row r="1" ht="100" customHeight="1">
-      <c r="A1" s="28" t="inlineStr">
+      <c r="A1" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">Tabella Entrate - Uscite - Saldo di ogni mese </t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="inlineStr">
+      <c r="A2" s="28" t="inlineStr">
         <is>
           <t>mese</t>
         </is>
       </c>
-      <c r="B2" s="30" t="inlineStr">
+      <c r="B2" s="29" t="inlineStr">
         <is>
           <t>saldo_iniziale</t>
         </is>
       </c>
-      <c r="C2" s="30" t="inlineStr">
+      <c r="C2" s="29" t="inlineStr">
         <is>
           <t>entrate_mese</t>
         </is>
       </c>
-      <c r="D2" s="30" t="inlineStr">
+      <c r="D2" s="29" t="inlineStr">
         <is>
           <t>uscite_mese</t>
         </is>
       </c>
-      <c r="E2" s="30" t="inlineStr">
+      <c r="E2" s="29" t="inlineStr">
         <is>
           <t>saldo_finale</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="30" t="inlineStr">
+      <c r="A3" s="29" t="inlineStr">
         <is>
           <t>gennaio</t>
         </is>
       </c>
-      <c r="B3" s="31" t="n">
+      <c r="B3" s="30" t="n">
         <v>200000</v>
       </c>
-      <c r="C3" s="32" t="n">
+      <c r="C3" s="31" t="n">
         <v>13787.25</v>
       </c>
-      <c r="D3" s="32" t="n">
+      <c r="D3" s="31" t="n">
         <v>22181.99</v>
       </c>
-      <c r="E3" s="32" t="n">
+      <c r="E3" s="31" t="n">
         <v>191605.26</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="30" t="inlineStr">
+      <c r="A4" s="29" t="inlineStr">
         <is>
           <t>febbraio</t>
         </is>
       </c>
-      <c r="B4" s="32" t="n">
+      <c r="B4" s="31" t="n">
         <v>191605.26</v>
       </c>
-      <c r="C4" s="32" t="n">
+      <c r="C4" s="31" t="n">
         <v>14425.08</v>
       </c>
-      <c r="D4" s="32" t="n">
+      <c r="D4" s="31" t="n">
         <v>29294.45</v>
       </c>
-      <c r="E4" s="32" t="n">
+      <c r="E4" s="31" t="n">
         <v>183210.52</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="30" t="inlineStr">
+      <c r="A5" s="29" t="inlineStr">
         <is>
           <t>marzo</t>
         </is>
       </c>
-      <c r="B5" s="32" t="n">
+      <c r="B5" s="31" t="n">
         <v>183210.52</v>
       </c>
-      <c r="C5" s="32" t="n">
+      <c r="C5" s="31" t="n">
         <v>10731.94</v>
       </c>
-      <c r="D5" s="32" t="n">
+      <c r="D5" s="31" t="n">
         <v>10486.2</v>
       </c>
-      <c r="E5" s="32" t="n">
+      <c r="E5" s="31" t="n">
         <v>174815.78</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="30" t="inlineStr">
+      <c r="A6" s="29" t="inlineStr">
         <is>
           <t>aprile</t>
         </is>
       </c>
-      <c r="B6" s="32" t="n">
+      <c r="B6" s="31" t="n">
         <v>174815.78</v>
       </c>
-      <c r="C6" s="32" t="n">
+      <c r="C6" s="31" t="n">
         <v>16072.87</v>
       </c>
-      <c r="D6" s="32" t="n">
+      <c r="D6" s="31" t="n">
         <v>14021.61</v>
       </c>
-      <c r="E6" s="32" t="n">
+      <c r="E6" s="31" t="n">
         <v>166421.04</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="30" t="inlineStr">
+      <c r="A7" s="29" t="inlineStr">
         <is>
           <t>maggio</t>
         </is>
       </c>
-      <c r="B7" s="32" t="n">
+      <c r="B7" s="31" t="n">
         <v>166421.04</v>
       </c>
-      <c r="C7" s="32" t="n">
+      <c r="C7" s="31" t="n">
         <v>8779.559999999999</v>
       </c>
-      <c r="D7" s="32" t="n">
+      <c r="D7" s="31" t="n">
         <v>37892.56</v>
       </c>
-      <c r="E7" s="32" t="n">
+      <c r="E7" s="31" t="n">
         <v>158026.3</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="30" t="inlineStr">
+      <c r="A8" s="29" t="inlineStr">
         <is>
           <t>giugno</t>
         </is>
       </c>
-      <c r="B8" s="32" t="n">
+      <c r="B8" s="31" t="n">
         <v>158026.3</v>
       </c>
-      <c r="C8" s="32" t="n">
+      <c r="C8" s="31" t="n">
         <v>12989.57</v>
       </c>
-      <c r="D8" s="32" t="n">
+      <c r="D8" s="31" t="n">
         <v>14117.1</v>
       </c>
-      <c r="E8" s="32" t="n">
+      <c r="E8" s="31" t="n">
         <v>149631.5600000001</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="30" t="inlineStr">
+      <c r="A9" s="29" t="inlineStr">
         <is>
           <t>luglio</t>
         </is>
       </c>
-      <c r="B9" s="32" t="n">
+      <c r="B9" s="31" t="n">
         <v>149631.5600000001</v>
       </c>
-      <c r="C9" s="32" t="n">
+      <c r="C9" s="31" t="n">
         <v>9483.110000000001</v>
       </c>
-      <c r="D9" s="32" t="n">
+      <c r="D9" s="31" t="n">
         <v>13151.58</v>
       </c>
-      <c r="E9" s="32" t="n">
+      <c r="E9" s="31" t="n">
         <v>141236.8200000001</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="30" t="inlineStr">
+      <c r="A10" s="29" t="inlineStr">
         <is>
           <t>agosto</t>
         </is>
       </c>
-      <c r="B10" s="32" t="n">
+      <c r="B10" s="31" t="n">
         <v>141236.8200000001</v>
       </c>
-      <c r="C10" s="32" t="n">
+      <c r="C10" s="31" t="n">
         <v>11824.33</v>
       </c>
-      <c r="D10" s="32" t="n">
+      <c r="D10" s="31" t="n">
         <v>15000.32</v>
       </c>
-      <c r="E10" s="32" t="n">
+      <c r="E10" s="31" t="n">
         <v>132842.0800000001</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="30" t="inlineStr">
+      <c r="A11" s="29" t="inlineStr">
         <is>
           <t>settembre</t>
         </is>
       </c>
-      <c r="B11" s="32" t="n">
+      <c r="B11" s="31" t="n">
         <v>132842.0800000001</v>
       </c>
-      <c r="C11" s="32" t="n">
+      <c r="C11" s="31" t="n">
         <v>12129.96</v>
       </c>
-      <c r="D11" s="32" t="n">
+      <c r="D11" s="31" t="n">
         <v>8247.740000000002</v>
       </c>
-      <c r="E11" s="32" t="n">
+      <c r="E11" s="31" t="n">
         <v>124447.3400000001</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="30" t="inlineStr">
+      <c r="A12" s="29" t="inlineStr">
         <is>
           <t>ottobre</t>
         </is>
       </c>
-      <c r="B12" s="32" t="n">
+      <c r="B12" s="31" t="n">
         <v>124447.3400000001</v>
       </c>
-      <c r="C12" s="32" t="n">
+      <c r="C12" s="31" t="n">
         <v>13373.44</v>
       </c>
-      <c r="D12" s="32" t="n">
+      <c r="D12" s="31" t="n">
         <v>16905.13</v>
       </c>
-      <c r="E12" s="32" t="n">
+      <c r="E12" s="31" t="n">
         <v>116052.6000000001</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="30" t="inlineStr">
+      <c r="A13" s="29" t="inlineStr">
         <is>
           <t>novembre</t>
         </is>
       </c>
-      <c r="B13" s="32" t="n">
+      <c r="B13" s="31" t="n">
         <v>116052.6000000001</v>
       </c>
-      <c r="C13" s="32" t="n">
+      <c r="C13" s="31" t="n">
         <v>17415.43</v>
       </c>
-      <c r="D13" s="32" t="n">
+      <c r="D13" s="31" t="n">
         <v>16645.01</v>
       </c>
-      <c r="E13" s="32" t="n">
+      <c r="E13" s="31" t="n">
         <v>107657.8600000001</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="30" t="inlineStr">
+      <c r="A14" s="29" t="inlineStr">
         <is>
           <t>dicembre</t>
         </is>
       </c>
-      <c r="B14" s="32" t="n">
+      <c r="B14" s="31" t="n">
         <v>107657.8600000001</v>
       </c>
-      <c r="C14" s="32" t="n">
+      <c r="C14" s="31" t="n">
         <v>18110.48</v>
       </c>
-      <c r="D14" s="32" t="n">
+      <c r="D14" s="31" t="n">
         <v>34245.8</v>
       </c>
-      <c r="E14" s="31" t="n">
+      <c r="E14" s="30" t="n">
         <v>99263.12000000011</v>
       </c>
     </row>
@@ -7718,99 +7713,99 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" ht="45" customHeight="1">
-      <c r="A1" s="33" t="inlineStr">
+      <c r="A1" s="32" t="inlineStr">
         <is>
           <t>Bilancio Anno ...</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="28" t="inlineStr">
+      <c r="A7" s="27" t="inlineStr">
         <is>
           <t>RIEPILOGO</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="34" t="inlineStr">
+      <c r="A10" s="33" t="inlineStr">
         <is>
           <t>SALDO iniziale</t>
         </is>
       </c>
-      <c r="E10" s="35" t="n">
+      <c r="E10" s="34" t="n">
         <v>200000</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="34" t="inlineStr">
+      <c r="A13" s="33" t="inlineStr">
         <is>
           <t>TOTALE Entrate</t>
         </is>
       </c>
-      <c r="E13" s="35" t="n">
+      <c r="E13" s="34" t="n">
         <v>159123.02</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="34" t="inlineStr">
+      <c r="A16" s="33" t="inlineStr">
         <is>
           <t>TOTALE Uscite</t>
         </is>
       </c>
-      <c r="E16" s="35" t="n">
+      <c r="E16" s="34" t="n">
         <v>232189.49</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="34" t="inlineStr">
+      <c r="A19" s="33" t="inlineStr">
         <is>
           <t>DIS/AVANZO</t>
         </is>
       </c>
-      <c r="E19" s="35" t="n">
+      <c r="E19" s="34" t="n">
         <v>-73066.47</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="34" t="inlineStr">
+      <c r="A22" s="33" t="inlineStr">
         <is>
           <t>SALDO Finale</t>
         </is>
       </c>
-      <c r="E22" s="35" t="n">
+      <c r="E22" s="34" t="n">
         <v>99263.12000000011</v>
       </c>
     </row>
     <row r="29">
-      <c r="D29" s="36" t="inlineStr">
+      <c r="D29" s="35" t="inlineStr">
         <is>
           <t>Guardiano</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="36" t="inlineStr">
+      <c r="A32" s="35" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="D35" s="36" t="inlineStr">
+      <c r="D35" s="35" t="inlineStr">
         <is>
           <t>Vicario</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="36" t="inlineStr">
+      <c r="A38" s="35" t="inlineStr">
         <is>
           <t>Timbro</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="D41" s="36" t="inlineStr">
+      <c r="D41" s="35" t="inlineStr">
         <is>
           <t>Economo</t>
         </is>
@@ -9105,7 +9100,7 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D110" s="24" t="n">
+      <c r="D110" s="21" t="n">
         <v>191605.26</v>
       </c>
     </row>
@@ -10259,7 +10254,7 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D98" s="24" t="n">
+      <c r="D98" s="21" t="n">
         <v>183210.52</v>
       </c>
     </row>
@@ -11240,7 +11235,7 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D85" s="24" t="n">
+      <c r="D85" s="21" t="n">
         <v>174815.78</v>
       </c>
     </row>
@@ -12453,7 +12448,7 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D103" s="24" t="n">
+      <c r="D103" s="21" t="n">
         <v>166421.04</v>
       </c>
     </row>
@@ -13491,7 +13486,7 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D89" s="24" t="n">
+      <c r="D89" s="21" t="n">
         <v>158026.3</v>
       </c>
     </row>
@@ -14682,7 +14677,7 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D101" s="24" t="n">
+      <c r="D101" s="21" t="n">
         <v>149631.5600000001</v>
       </c>
     </row>
@@ -15708,7 +15703,7 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D88" s="24" t="n">
+      <c r="D88" s="21" t="n">
         <v>141236.8200000001</v>
       </c>
     </row>
@@ -16867,7 +16862,7 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D99" s="24" t="n">
+      <c r="D99" s="21" t="n">
         <v>132842.0800000001</v>
       </c>
     </row>

--- a/conti_styled.xlsx
+++ b/conti_styled.xlsx
@@ -6293,7 +6293,7 @@
         <v>630</v>
       </c>
       <c r="J12" t="n">
-        <v>360.1</v>
+        <v>360</v>
       </c>
       <c r="K12" t="n">
         <v>870</v>
@@ -6305,7 +6305,7 @@
         <v>560</v>
       </c>
       <c r="N12" t="n">
-        <v>8020.2</v>
+        <v>8020.1</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -6431,7 +6431,7 @@
         <v>8779.559999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>10731.94</v>
+        <v>10731.84</v>
       </c>
       <c r="K15" t="n">
         <v>17415.43</v>
@@ -6443,7 +6443,7 @@
         <v>12129.96</v>
       </c>
       <c r="N15" s="26" t="n">
-        <v>159123.02</v>
+        <v>159122.92</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1"/>
@@ -7509,7 +7509,7 @@
         <v>183210.52</v>
       </c>
       <c r="C5" s="31" t="n">
-        <v>10731.94</v>
+        <v>10731.84</v>
       </c>
       <c r="D5" s="31" t="n">
         <v>10486.2</v>
@@ -7743,7 +7743,7 @@
         </is>
       </c>
       <c r="E13" s="34" t="n">
-        <v>159123.02</v>
+        <v>159122.92</v>
       </c>
     </row>
     <row r="16">
@@ -7763,7 +7763,7 @@
         </is>
       </c>
       <c r="E19" s="34" t="n">
-        <v>-73066.47</v>
+        <v>-73066.56999999998</v>
       </c>
     </row>
     <row r="22">
@@ -10352,7 +10352,7 @@
       <c r="B7" s="11" t="inlineStr"/>
       <c r="C7" s="12" t="inlineStr"/>
       <c r="D7" s="10" t="n">
-        <v>10731.94</v>
+        <v>10731.84</v>
       </c>
     </row>
     <row r="8">
@@ -10580,7 +10580,7 @@
         </is>
       </c>
       <c r="D24" s="14" t="n">
-        <v>360.1</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25">
@@ -10592,7 +10592,7 @@
         </is>
       </c>
       <c r="D25" s="16" t="n">
-        <v>360.1</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26">
@@ -11206,7 +11206,7 @@
         </is>
       </c>
       <c r="D79" s="21" t="n">
-        <v>10731.94</v>
+        <v>10731.84</v>
       </c>
     </row>
     <row r="81">
@@ -11226,7 +11226,7 @@
         </is>
       </c>
       <c r="D83" s="21" t="n">
-        <v>245.7399999999998</v>
+        <v>245.6399999999994</v>
       </c>
     </row>
     <row r="85">

--- a/conti_styled.xlsx
+++ b/conti_styled.xlsx
@@ -6625,7 +6625,7 @@
         <v>135</v>
       </c>
       <c r="C5" t="n">
-        <v>244</v>
+        <v>244.6</v>
       </c>
       <c r="D5" t="n">
         <v>173</v>
@@ -6658,7 +6658,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>931</v>
+        <v>931.6</v>
       </c>
     </row>
     <row r="6" ht="17" customHeight="1">
@@ -7361,7 +7361,7 @@
         <v>15000.32</v>
       </c>
       <c r="C21" t="n">
-        <v>14021.61</v>
+        <v>14022.21</v>
       </c>
       <c r="D21" t="n">
         <v>34245.8</v>
@@ -7394,7 +7394,7 @@
         <v>8247.74</v>
       </c>
       <c r="N21" s="26" t="n">
-        <v>232189.49</v>
+        <v>232190.09</v>
       </c>
     </row>
   </sheetData>
@@ -7531,7 +7531,7 @@
         <v>16072.87</v>
       </c>
       <c r="D6" s="31" t="n">
-        <v>14021.61</v>
+        <v>14022.21</v>
       </c>
       <c r="E6" s="31" t="n">
         <v>166421.04</v>
@@ -7753,7 +7753,7 @@
         </is>
       </c>
       <c r="E16" s="34" t="n">
-        <v>232189.49</v>
+        <v>232190.09</v>
       </c>
     </row>
     <row r="19">
@@ -7763,7 +7763,7 @@
         </is>
       </c>
       <c r="E19" s="34" t="n">
-        <v>-73066.56999999998</v>
+        <v>-73067.16999999998</v>
       </c>
     </row>
     <row r="22">
@@ -11727,7 +11727,7 @@
       <c r="B39" s="11" t="inlineStr"/>
       <c r="C39" s="12" t="inlineStr"/>
       <c r="D39" s="10" t="n">
-        <v>14021.61</v>
+        <v>14022.21</v>
       </c>
     </row>
     <row r="40">
@@ -11783,7 +11783,7 @@
         </is>
       </c>
       <c r="D43" s="14" t="n">
-        <v>244</v>
+        <v>244.6</v>
       </c>
     </row>
     <row r="44">
@@ -11795,7 +11795,7 @@
         </is>
       </c>
       <c r="D44" s="16" t="n">
-        <v>114</v>
+        <v>114.6</v>
       </c>
     </row>
     <row r="45">
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D99" s="22" t="n">
-        <v>14021.61</v>
+        <v>14022.21</v>
       </c>
     </row>
     <row r="101">
@@ -12439,7 +12439,7 @@
         </is>
       </c>
       <c r="D101" s="21" t="n">
-        <v>2051.26</v>
+        <v>2050.660000000002</v>
       </c>
     </row>
     <row r="103">

--- a/conti_styled.xlsx
+++ b/conti_styled.xlsx
@@ -67,7 +67,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -81,11 +81,32 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -94,6 +115,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -536,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A7:C12"/>
+  <dimension ref="A6:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,41 +567,129 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Entrate_Uscite</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>Entrate_Uscite</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
+          <t>Entrate</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr"/>
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr"/>
+      <c r="C15" s="3" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n"/>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B16:B17"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -589,7 +700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A7:C12"/>
+  <dimension ref="A6:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -597,41 +708,129 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Entrate_Uscite</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>Entrate_Uscite</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
+          <t>Entrate</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr"/>
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr"/>
+      <c r="C15" s="3" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n"/>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B16:B17"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -642,7 +841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A7:C12"/>
+  <dimension ref="A6:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,41 +849,129 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Entrate_Uscite</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>Entrate_Uscite</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
+          <t>Entrate</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr"/>
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr"/>
+      <c r="C15" s="3" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n"/>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B16:B17"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -695,7 +982,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A7:C12"/>
+  <dimension ref="A6:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -703,41 +990,129 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Entrate_Uscite</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>Entrate_Uscite</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
+          <t>Entrate</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr"/>
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr"/>
+      <c r="C15" s="3" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B16:B17"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -748,7 +1123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A7:C12"/>
+  <dimension ref="A6:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,41 +1131,129 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Entrate_Uscite</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>Entrate_Uscite</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
+          <t>Entrate</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr"/>
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>698.8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Congrua</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>698.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>fra Giacomo</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>698.8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr"/>
+      <c r="C15" s="3" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n"/>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B16:B17"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -801,7 +1264,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A7:C12"/>
+  <dimension ref="A6:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -809,41 +1272,129 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Entrate_Uscite</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>Entrate_Uscite</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
+          <t>Entrate</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr"/>
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr"/>
+      <c r="C15" s="3" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n"/>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B16:B17"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -854,7 +1405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A7:C12"/>
+  <dimension ref="A6:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -862,41 +1413,129 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Entrate_Uscite</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>Entrate_Uscite</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
+          <t>Entrate</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr"/>
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr"/>
+      <c r="C15" s="3" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n"/>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B16:B17"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -907,7 +1546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A7:C12"/>
+  <dimension ref="A6:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -915,41 +1554,129 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Entrate_Uscite</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>Entrate_Uscite</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
+          <t>Entrate</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr"/>
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr"/>
+      <c r="C15" s="3" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n"/>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B16:B17"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -960,7 +1687,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A7:C12"/>
+  <dimension ref="A6:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -968,41 +1695,129 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Entrate_Uscite</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>Entrate_Uscite</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
+          <t>Entrate</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr"/>
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr"/>
+      <c r="C15" s="3" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n"/>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B16:B17"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1013,7 +1828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A7:C12"/>
+  <dimension ref="A6:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1021,41 +1836,129 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Entrate_Uscite</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>Entrate_Uscite</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
+          <t>Entrate</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr"/>
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr"/>
+      <c r="C15" s="3" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n"/>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B16:B17"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1066,7 +1969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A7:C12"/>
+  <dimension ref="A6:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1074,41 +1977,129 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Entrate_Uscite</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>Entrate_Uscite</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
+          <t>Entrate</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr"/>
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr"/>
+      <c r="C15" s="3" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n"/>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B16:B17"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1119,7 +2110,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A7:C12"/>
+  <dimension ref="A6:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1127,41 +2118,129 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Entrate_Uscite</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>Entrate_Uscite</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
+          <t>Entrate</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr"/>
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr"/>
+      <c r="C15" s="3" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n"/>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B16:B17"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/conti_styled.xlsx
+++ b/conti_styled.xlsx
@@ -1162,19 +1162,19 @@
       <c r="B7" s="3" t="inlineStr"/>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>698.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Congrua</t>
+          <t>vuoto</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>698.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1182,11 +1182,11 @@
       <c r="B9" s="5" t="n"/>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>fra Giacomo</t>
+          <t>vuoto</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>698.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">

--- a/conti_styled.xlsx
+++ b/conti_styled.xlsx
@@ -20,6 +20,10 @@
     <sheet name="ottobre" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="novembre" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="dicembre" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Tab_Entrate" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Tab_Uscite" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Saldo_riepilogo" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Fine" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28,8 +32,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="#,##0.00 €"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00€"/>
+    <numFmt numFmtId="166" formatCode="-#,##0.00€"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -58,16 +66,109 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <color rgb="00a81a1a"/>
+      <sz val="15"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00a81a1a"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <color rgb="00a81a1a"/>
+      <sz val="25"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00a81a1a"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <sz val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00a81a1a"/>
+      <sz val="80"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00a81a1a"/>
+      <sz val="40"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="13"/>
+    </font>
+    <font>
+      <color rgb="00000000"/>
+    </font>
+    <font>
+      <color rgb="00a81a1a"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00a81a1a"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00a81a1a"/>
+      <sz val="35"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="15"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00d1d22e"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -102,11 +203,50 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="004617F1"/>
+      </left>
+      <right style="double">
+        <color rgb="004617F1"/>
+      </right>
+      <top style="double">
+        <color rgb="004617F1"/>
+      </top>
+      <bottom style="double">
+        <color rgb="004617F1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border/>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="7" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -117,9 +257,100 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Pandas" xfId="1" hidden="0"/>
+    <cellStyle name="highlight" xfId="2" hidden="0"/>
+    <cellStyle name="black" xfId="3" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -193,6 +424,189 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="12"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Bilancio</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Saldo_riepilogo'!C2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Saldo_riepilogo'!$A$3:$A$14</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Saldo_riepilogo'!$C$3:$C$14</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Saldo_riepilogo'!D2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Saldo_riepilogo'!$A$3:$A$14</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Saldo_riepilogo'!$D$3:$D$14</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'Saldo_riepilogo'!E2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Saldo_riepilogo'!$A$3:$A$14</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Saldo_riepilogo'!$E$3:$E$14</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Mesi</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Euro</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -221,6 +635,33 @@
         </a:ln>
       </spPr>
     </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
     <clientData/>
   </oneCellAnchor>
 </wsDr>
@@ -559,136 +1000,232 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:D17"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
+    <row r="1" ht="70" customHeight="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>settembre</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="7" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>Totale Categoria =</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="8" t="inlineStr">
         <is>
           <t>Entrate</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr"/>
-      <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" t="n">
+      <c r="B7" s="11" t="inlineStr"/>
+      <c r="C7" s="12" t="inlineStr"/>
+      <c r="D7" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="n"/>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="13" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr"/>
-      <c r="D8" t="n">
+      <c r="C8" s="12" t="inlineStr">
+        <is>
+          <t>Totale vuoto =</t>
+        </is>
+      </c>
+      <c r="D8" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="B9" s="15" t="n"/>
+      <c r="C9" s="12" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
+      <c r="D9" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="17" t="n"/>
+      <c r="C10" s="18" t="n"/>
+      <c r="D10" s="16" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="17" t="n"/>
+      <c r="C11" s="18" t="n"/>
+      <c r="D11" s="16" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="17" t="n"/>
+      <c r="C12" s="18" t="n"/>
+      <c r="D12" s="16" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="17" t="n"/>
+      <c r="C13" s="18" t="n"/>
+      <c r="D13" s="16" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="7" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="C14" s="9" t="inlineStr">
+        <is>
+          <t>Totale Categoria =</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>Uscite</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr"/>
-      <c r="C15" s="3" t="inlineStr"/>
-      <c r="D15" t="n">
+      <c r="B15" s="11" t="inlineStr"/>
+      <c r="C15" s="12" t="inlineStr"/>
+      <c r="D15" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="n"/>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="13" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr"/>
-      <c r="D16" t="n">
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t>Totale vuoto =</t>
+        </is>
+      </c>
+      <c r="D16" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="B17" s="15" t="n"/>
+      <c r="C17" s="12" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="D17" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+      <c r="D22" s="20" t="n">
+        <v>5593.400000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="19" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D24" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="19" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D26" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="19" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+      <c r="D28" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
+      <c r="D30" s="20" t="n">
+        <v>6292.200000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -700,136 +1237,232 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:D17"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
+    <row r="1" ht="70" customHeight="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>ottobre</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="7" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>Totale Categoria =</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="8" t="inlineStr">
         <is>
           <t>Entrate</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr"/>
-      <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" t="n">
+      <c r="B7" s="11" t="inlineStr"/>
+      <c r="C7" s="12" t="inlineStr"/>
+      <c r="D7" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="n"/>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="13" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr"/>
-      <c r="D8" t="n">
+      <c r="C8" s="12" t="inlineStr">
+        <is>
+          <t>Totale vuoto =</t>
+        </is>
+      </c>
+      <c r="D8" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="B9" s="15" t="n"/>
+      <c r="C9" s="12" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
+      <c r="D9" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="17" t="n"/>
+      <c r="C10" s="18" t="n"/>
+      <c r="D10" s="16" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="17" t="n"/>
+      <c r="C11" s="18" t="n"/>
+      <c r="D11" s="16" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="17" t="n"/>
+      <c r="C12" s="18" t="n"/>
+      <c r="D12" s="16" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="17" t="n"/>
+      <c r="C13" s="18" t="n"/>
+      <c r="D13" s="16" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="7" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="C14" s="9" t="inlineStr">
+        <is>
+          <t>Totale Categoria =</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>Uscite</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr"/>
-      <c r="C15" s="3" t="inlineStr"/>
-      <c r="D15" t="n">
+      <c r="B15" s="11" t="inlineStr"/>
+      <c r="C15" s="12" t="inlineStr"/>
+      <c r="D15" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="n"/>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="13" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr"/>
-      <c r="D16" t="n">
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t>Totale vuoto =</t>
+        </is>
+      </c>
+      <c r="D16" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="B17" s="15" t="n"/>
+      <c r="C17" s="12" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="D17" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+      <c r="D22" s="20" t="n">
+        <v>6292.200000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="19" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D24" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="19" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D26" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="19" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+      <c r="D28" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
+      <c r="D30" s="20" t="n">
+        <v>6991.000000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -841,136 +1474,232 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:D17"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
+    <row r="1" ht="70" customHeight="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>novembre</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="7" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>Totale Categoria =</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="8" t="inlineStr">
         <is>
           <t>Entrate</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr"/>
-      <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" t="n">
+      <c r="B7" s="11" t="inlineStr"/>
+      <c r="C7" s="12" t="inlineStr"/>
+      <c r="D7" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="n"/>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="13" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr"/>
-      <c r="D8" t="n">
+      <c r="C8" s="12" t="inlineStr">
+        <is>
+          <t>Totale vuoto =</t>
+        </is>
+      </c>
+      <c r="D8" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="B9" s="15" t="n"/>
+      <c r="C9" s="12" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
+      <c r="D9" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="17" t="n"/>
+      <c r="C10" s="18" t="n"/>
+      <c r="D10" s="16" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="17" t="n"/>
+      <c r="C11" s="18" t="n"/>
+      <c r="D11" s="16" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="17" t="n"/>
+      <c r="C12" s="18" t="n"/>
+      <c r="D12" s="16" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="17" t="n"/>
+      <c r="C13" s="18" t="n"/>
+      <c r="D13" s="16" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="7" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="C14" s="9" t="inlineStr">
+        <is>
+          <t>Totale Categoria =</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>Uscite</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr"/>
-      <c r="C15" s="3" t="inlineStr"/>
-      <c r="D15" t="n">
+      <c r="B15" s="11" t="inlineStr"/>
+      <c r="C15" s="12" t="inlineStr"/>
+      <c r="D15" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="n"/>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="13" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr"/>
-      <c r="D16" t="n">
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t>Totale vuoto =</t>
+        </is>
+      </c>
+      <c r="D16" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="B17" s="15" t="n"/>
+      <c r="C17" s="12" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="D17" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+      <c r="D22" s="20" t="n">
+        <v>6991.000000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="19" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D24" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="19" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D26" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="19" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+      <c r="D28" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
+      <c r="D30" s="20" t="n">
+        <v>7689.800000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -982,7 +1711,766 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:D17"/>
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="70" customHeight="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>dicembre</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>Totale Categoria =</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>Entrate</t>
+        </is>
+      </c>
+      <c r="B7" s="11" t="inlineStr"/>
+      <c r="C7" s="12" t="inlineStr"/>
+      <c r="D7" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="C8" s="12" t="inlineStr">
+        <is>
+          <t>Totale vuoto =</t>
+        </is>
+      </c>
+      <c r="D8" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="15" t="n"/>
+      <c r="C9" s="12" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="D9" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="17" t="n"/>
+      <c r="C10" s="18" t="n"/>
+      <c r="D10" s="16" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="17" t="n"/>
+      <c r="C11" s="18" t="n"/>
+      <c r="D11" s="16" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="17" t="n"/>
+      <c r="C12" s="18" t="n"/>
+      <c r="D12" s="16" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="17" t="n"/>
+      <c r="C13" s="18" t="n"/>
+      <c r="D13" s="16" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C14" s="9" t="inlineStr">
+        <is>
+          <t>Totale Categoria =</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="B15" s="11" t="inlineStr"/>
+      <c r="C15" s="12" t="inlineStr"/>
+      <c r="D15" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n"/>
+      <c r="B16" s="13" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t>Totale vuoto =</t>
+        </is>
+      </c>
+      <c r="D16" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n"/>
+      <c r="B17" s="15" t="n"/>
+      <c r="C17" s="12" t="inlineStr">
+        <is>
+          <t>vuoto</t>
+        </is>
+      </c>
+      <c r="D17" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+      <c r="D22" s="20" t="n">
+        <v>7689.800000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="19" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D24" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="19" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D26" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="19" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+      <c r="D28" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
+      <c r="D30" s="20" t="n">
+        <v>8388.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="70" customHeight="1">
+      <c r="A1" s="23" t="inlineStr">
+        <is>
+          <t>Tabellone Entrate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1">
+      <c r="A2" s="24" t="n"/>
+      <c r="B2" s="24" t="inlineStr">
+        <is>
+          <t>gennaio</t>
+        </is>
+      </c>
+      <c r="C2" s="24" t="inlineStr">
+        <is>
+          <t>TOTALE_Entrate</t>
+        </is>
+      </c>
+      <c r="D2" s="24" t="n"/>
+      <c r="E2" s="24" t="n"/>
+      <c r="F2" s="24" t="n"/>
+      <c r="G2" s="24" t="n"/>
+      <c r="H2" s="24" t="n"/>
+      <c r="I2" s="24" t="n"/>
+      <c r="J2" s="24" t="n"/>
+      <c r="K2" s="24" t="n"/>
+      <c r="L2" s="24" t="n"/>
+      <c r="M2" s="24" t="n"/>
+      <c r="N2" s="24" t="n"/>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="24" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" s="24" t="inlineStr">
+        <is>
+          <t>Congrua</t>
+        </is>
+      </c>
+      <c r="B4" s="25" t="n">
+        <v>698.8</v>
+      </c>
+      <c r="C4" s="25" t="n">
+        <v>698.8</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" s="24" t="inlineStr">
+        <is>
+          <t>TOTALE_Entrate</t>
+        </is>
+      </c>
+      <c r="B5" s="25" t="n">
+        <v>698.8</v>
+      </c>
+      <c r="C5" s="25" t="n">
+        <v>698.8</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1"/>
+    <row r="7" ht="20" customHeight="1"/>
+    <row r="8" ht="20" customHeight="1"/>
+    <row r="9" ht="20" customHeight="1"/>
+    <row r="10" ht="20" customHeight="1"/>
+    <row r="11" ht="20" customHeight="1"/>
+    <row r="12" ht="20" customHeight="1"/>
+    <row r="13" ht="20" customHeight="1"/>
+    <row r="14" ht="20" customHeight="1"/>
+    <row r="15" ht="20" customHeight="1"/>
+    <row r="16" ht="20" customHeight="1"/>
+    <row r="17" ht="20" customHeight="1"/>
+    <row r="18" ht="20" customHeight="1"/>
+    <row r="19" ht="20" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="16" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="45" customHeight="1">
+      <c r="A1" s="23" t="inlineStr">
+        <is>
+          <t>Tabellone Uscite</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="17" customHeight="1">
+      <c r="A2" s="24" t="n"/>
+      <c r="B2" s="24" t="inlineStr">
+        <is>
+          <t>marzo</t>
+        </is>
+      </c>
+      <c r="C2" s="24" t="inlineStr">
+        <is>
+          <t>TOTALE_Uscite</t>
+        </is>
+      </c>
+      <c r="D2" s="24" t="n"/>
+      <c r="E2" s="24" t="n"/>
+      <c r="F2" s="24" t="n"/>
+      <c r="G2" s="24" t="n"/>
+      <c r="H2" s="24" t="n"/>
+      <c r="I2" s="24" t="n"/>
+      <c r="J2" s="24" t="n"/>
+      <c r="K2" s="24" t="n"/>
+      <c r="L2" s="24" t="n"/>
+      <c r="M2" s="24" t="n"/>
+      <c r="N2" s="24" t="n"/>
+    </row>
+    <row r="3" ht="17" customHeight="1">
+      <c r="A3" s="24" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" s="24" t="inlineStr">
+        <is>
+          <t>Acquisti_Convento</t>
+        </is>
+      </c>
+      <c r="B4" s="25" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C4" s="25" t="n">
+        <v>36.8</v>
+      </c>
+    </row>
+    <row r="5" ht="17" customHeight="1">
+      <c r="A5" s="24" t="inlineStr">
+        <is>
+          <t>TOTALE_Uscite</t>
+        </is>
+      </c>
+      <c r="B5" s="25" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C5" s="25" t="n">
+        <v>36.8</v>
+      </c>
+    </row>
+    <row r="6" ht="17" customHeight="1"/>
+    <row r="7" ht="17" customHeight="1"/>
+    <row r="8" ht="17" customHeight="1"/>
+    <row r="9" ht="17" customHeight="1"/>
+    <row r="10" ht="17" customHeight="1"/>
+    <row r="11" ht="17" customHeight="1"/>
+    <row r="12" ht="17" customHeight="1"/>
+    <row r="13" ht="17" customHeight="1"/>
+    <row r="14" ht="17" customHeight="1"/>
+    <row r="15" ht="17" customHeight="1"/>
+    <row r="16" ht="17" customHeight="1"/>
+    <row r="17" ht="17" customHeight="1"/>
+    <row r="18" ht="17" customHeight="1"/>
+    <row r="19" ht="17" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="100" customHeight="1">
+      <c r="A1" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tabella Entrate - Uscite - Saldo di ogni mese </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="27" t="inlineStr">
+        <is>
+          <t>mese</t>
+        </is>
+      </c>
+      <c r="B2" s="28" t="inlineStr">
+        <is>
+          <t>saldo_iniziale</t>
+        </is>
+      </c>
+      <c r="C2" s="28" t="inlineStr">
+        <is>
+          <t>entrate_mese</t>
+        </is>
+      </c>
+      <c r="D2" s="28" t="inlineStr">
+        <is>
+          <t>uscite_mese</t>
+        </is>
+      </c>
+      <c r="E2" s="28" t="inlineStr">
+        <is>
+          <t>saldo_finale</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="28" t="inlineStr">
+        <is>
+          <t>gennaio</t>
+        </is>
+      </c>
+      <c r="B3" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="30" t="n">
+        <v>698.8</v>
+      </c>
+      <c r="D3" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="30" t="n">
+        <v>701.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="28" t="inlineStr">
+        <is>
+          <t>febbraio</t>
+        </is>
+      </c>
+      <c r="B4" s="30" t="n">
+        <v>701.8</v>
+      </c>
+      <c r="C4" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="30" t="n">
+        <v>1400.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="28" t="inlineStr">
+        <is>
+          <t>marzo</t>
+        </is>
+      </c>
+      <c r="B5" s="30" t="n">
+        <v>1400.6</v>
+      </c>
+      <c r="C5" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="30" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="E5" s="30" t="n">
+        <v>2099.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="28" t="inlineStr">
+        <is>
+          <t>aprile</t>
+        </is>
+      </c>
+      <c r="B6" s="30" t="n">
+        <v>2099.4</v>
+      </c>
+      <c r="C6" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="30" t="n">
+        <v>2798.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="28" t="inlineStr">
+        <is>
+          <t>maggio</t>
+        </is>
+      </c>
+      <c r="B7" s="30" t="n">
+        <v>2798.2</v>
+      </c>
+      <c r="C7" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="30" t="n">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="28" t="inlineStr">
+        <is>
+          <t>giugno</t>
+        </is>
+      </c>
+      <c r="B8" s="30" t="n">
+        <v>3497</v>
+      </c>
+      <c r="C8" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="30" t="n">
+        <v>4195.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="28" t="inlineStr">
+        <is>
+          <t>luglio</t>
+        </is>
+      </c>
+      <c r="B9" s="30" t="n">
+        <v>4195.8</v>
+      </c>
+      <c r="C9" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="30" t="n">
+        <v>4894.6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="28" t="inlineStr">
+        <is>
+          <t>agosto</t>
+        </is>
+      </c>
+      <c r="B10" s="30" t="n">
+        <v>4894.6</v>
+      </c>
+      <c r="C10" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="30" t="n">
+        <v>5593.400000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="28" t="inlineStr">
+        <is>
+          <t>settembre</t>
+        </is>
+      </c>
+      <c r="B11" s="30" t="n">
+        <v>5593.400000000001</v>
+      </c>
+      <c r="C11" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="30" t="n">
+        <v>6292.200000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="28" t="inlineStr">
+        <is>
+          <t>ottobre</t>
+        </is>
+      </c>
+      <c r="B12" s="30" t="n">
+        <v>6292.200000000001</v>
+      </c>
+      <c r="C12" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="30" t="n">
+        <v>6991.000000000001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="28" t="inlineStr">
+        <is>
+          <t>novembre</t>
+        </is>
+      </c>
+      <c r="B13" s="30" t="n">
+        <v>6991.000000000001</v>
+      </c>
+      <c r="C13" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="30" t="n">
+        <v>7689.800000000001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="28" t="inlineStr">
+        <is>
+          <t>dicembre</t>
+        </is>
+      </c>
+      <c r="B14" s="30" t="n">
+        <v>7689.800000000001</v>
+      </c>
+      <c r="C14" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="29" t="n">
+        <v>8388.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -990,128 +2478,124 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Entrate_Uscite</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>Euro</t>
+    <row r="1" ht="45" customHeight="1">
+      <c r="A1" s="32" t="inlineStr">
+        <is>
+          <t>Bilancio Anno ...</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>Entrate</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr"/>
-      <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n"/>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>vuoto</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr"/>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n"/>
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>vuoto</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>Entrate_Uscite</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>Euro</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>Uscite</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="inlineStr"/>
-      <c r="C15" s="3" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>0</v>
+      <c r="A7" s="26" t="inlineStr">
+        <is>
+          <t>RIEPILOGO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="33" t="inlineStr">
+        <is>
+          <t>SALDO iniziale</t>
+        </is>
+      </c>
+      <c r="E10" s="34" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="33" t="inlineStr">
+        <is>
+          <t>TOTALE Entrate</t>
+        </is>
+      </c>
+      <c r="E13" s="34" t="n">
+        <v>698.8</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n"/>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>vuoto</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n"/>
-      <c r="B17" s="3" t="n"/>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>vuoto</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="A16" s="33" t="inlineStr">
+        <is>
+          <t>TOTALE Uscite</t>
+        </is>
+      </c>
+      <c r="E16" s="34" t="n">
+        <v>36.8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="33" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO</t>
+        </is>
+      </c>
+      <c r="E19" s="34" t="n">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="33" t="inlineStr">
+        <is>
+          <t>SALDO Finale</t>
+        </is>
+      </c>
+      <c r="E22" s="34" t="n">
+        <v>8388.6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" s="35" t="inlineStr">
+        <is>
+          <t>Guardiano</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="35" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="D35" s="35" t="inlineStr">
+        <is>
+          <t>Vicario</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="35" t="inlineStr">
+        <is>
+          <t>Timbro</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="D41" s="35" t="inlineStr">
+        <is>
+          <t>Economo</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B16:B17"/>
+  <mergeCells count="17">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1123,136 +2607,232 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:D17"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
+    <row r="1" ht="70" customHeight="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>gennaio</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="7" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>Totale Categoria =</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="8" t="inlineStr">
         <is>
           <t>Entrate</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr"/>
-      <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" t="n">
-        <v>0</v>
+      <c r="B7" s="11" t="inlineStr"/>
+      <c r="C7" s="12" t="inlineStr"/>
+      <c r="D7" s="10" t="n">
+        <v>698.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="n"/>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>vuoto</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr"/>
-      <c r="D8" t="n">
-        <v>0</v>
+      <c r="B8" s="13" t="inlineStr">
+        <is>
+          <t>Congrua</t>
+        </is>
+      </c>
+      <c r="C8" s="12" t="inlineStr">
+        <is>
+          <t>Totale Congrua =</t>
+        </is>
+      </c>
+      <c r="D8" s="14" t="n">
+        <v>698.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>vuoto</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
+      <c r="B9" s="15" t="n"/>
+      <c r="C9" s="12" t="inlineStr">
+        <is>
+          <t>fra Giacomo</t>
+        </is>
+      </c>
+      <c r="D9" s="16" t="n">
+        <v>698.8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="17" t="n"/>
+      <c r="C10" s="18" t="n"/>
+      <c r="D10" s="16" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="17" t="n"/>
+      <c r="C11" s="18" t="n"/>
+      <c r="D11" s="16" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="17" t="n"/>
+      <c r="C12" s="18" t="n"/>
+      <c r="D12" s="16" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="17" t="n"/>
+      <c r="C13" s="18" t="n"/>
+      <c r="D13" s="16" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="7" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="C14" s="9" t="inlineStr">
+        <is>
+          <t>Totale Categoria =</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>Uscite</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr"/>
-      <c r="C15" s="3" t="inlineStr"/>
-      <c r="D15" t="n">
+      <c r="B15" s="11" t="inlineStr"/>
+      <c r="C15" s="12" t="inlineStr"/>
+      <c r="D15" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="n"/>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="13" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr"/>
-      <c r="D16" t="n">
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t>Totale vuoto =</t>
+        </is>
+      </c>
+      <c r="D16" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="B17" s="15" t="n"/>
+      <c r="C17" s="12" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="D17" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+      <c r="D22" s="20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="19" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D24" s="20" t="n">
+        <v>698.8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="19" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D26" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="19" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+      <c r="D28" s="20" t="n">
+        <v>698.8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
+      <c r="D30" s="20" t="n">
+        <v>701.8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1264,136 +2844,232 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:D17"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
+    <row r="1" ht="70" customHeight="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>febbraio</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="7" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>Totale Categoria =</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="8" t="inlineStr">
         <is>
           <t>Entrate</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr"/>
-      <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" t="n">
+      <c r="B7" s="11" t="inlineStr"/>
+      <c r="C7" s="12" t="inlineStr"/>
+      <c r="D7" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="n"/>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="13" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr"/>
-      <c r="D8" t="n">
+      <c r="C8" s="12" t="inlineStr">
+        <is>
+          <t>Totale vuoto =</t>
+        </is>
+      </c>
+      <c r="D8" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="B9" s="15" t="n"/>
+      <c r="C9" s="12" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
+      <c r="D9" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="17" t="n"/>
+      <c r="C10" s="18" t="n"/>
+      <c r="D10" s="16" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="17" t="n"/>
+      <c r="C11" s="18" t="n"/>
+      <c r="D11" s="16" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="17" t="n"/>
+      <c r="C12" s="18" t="n"/>
+      <c r="D12" s="16" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="17" t="n"/>
+      <c r="C13" s="18" t="n"/>
+      <c r="D13" s="16" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="7" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="C14" s="9" t="inlineStr">
+        <is>
+          <t>Totale Categoria =</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>Uscite</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr"/>
-      <c r="C15" s="3" t="inlineStr"/>
-      <c r="D15" t="n">
+      <c r="B15" s="11" t="inlineStr"/>
+      <c r="C15" s="12" t="inlineStr"/>
+      <c r="D15" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="n"/>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="13" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr"/>
-      <c r="D16" t="n">
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t>Totale vuoto =</t>
+        </is>
+      </c>
+      <c r="D16" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="B17" s="15" t="n"/>
+      <c r="C17" s="12" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="D17" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+      <c r="D22" s="20" t="n">
+        <v>701.8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="19" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D24" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="19" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D26" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="19" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+      <c r="D28" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
+      <c r="D30" s="20" t="n">
+        <v>1400.6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1405,136 +3081,232 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:D17"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
+    <row r="1" ht="70" customHeight="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>marzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="7" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>Totale Categoria =</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="8" t="inlineStr">
         <is>
           <t>Entrate</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr"/>
-      <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" t="n">
+      <c r="B7" s="11" t="inlineStr"/>
+      <c r="C7" s="12" t="inlineStr"/>
+      <c r="D7" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="n"/>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="13" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr"/>
-      <c r="D8" t="n">
+      <c r="C8" s="12" t="inlineStr">
+        <is>
+          <t>Totale vuoto =</t>
+        </is>
+      </c>
+      <c r="D8" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="B9" s="15" t="n"/>
+      <c r="C9" s="12" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
+      <c r="D9" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="17" t="n"/>
+      <c r="C10" s="18" t="n"/>
+      <c r="D10" s="16" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="17" t="n"/>
+      <c r="C11" s="18" t="n"/>
+      <c r="D11" s="16" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="17" t="n"/>
+      <c r="C12" s="18" t="n"/>
+      <c r="D12" s="16" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="17" t="n"/>
+      <c r="C13" s="18" t="n"/>
+      <c r="D13" s="16" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="7" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="C14" s="9" t="inlineStr">
+        <is>
+          <t>Totale Categoria =</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>Uscite</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr"/>
-      <c r="C15" s="3" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>0</v>
+      <c r="B15" s="11" t="inlineStr"/>
+      <c r="C15" s="12" t="inlineStr"/>
+      <c r="D15" s="10" t="n">
+        <v>36.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="n"/>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>vuoto</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>0</v>
+      <c r="B16" s="13" t="inlineStr">
+        <is>
+          <t>Acquisti_Convento</t>
+        </is>
+      </c>
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t>Totale Acquisti_Convento =</t>
+        </is>
+      </c>
+      <c r="D16" s="14" t="n">
+        <v>36.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>vuoto</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="B17" s="15" t="n"/>
+      <c r="C17" s="12" t="inlineStr">
+        <is>
+          <t>Casalinghi</t>
+        </is>
+      </c>
+      <c r="D17" s="16" t="n">
+        <v>36.8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+      <c r="D22" s="20" t="n">
+        <v>1400.6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="19" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D24" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="19" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D26" s="21" t="n">
+        <v>36.8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="19" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+      <c r="D28" s="22" t="n">
+        <v>-36.8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
+      <c r="D30" s="20" t="n">
+        <v>2099.4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1546,136 +3318,232 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:D17"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
+    <row r="1" ht="70" customHeight="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>aprile</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="7" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>Totale Categoria =</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="8" t="inlineStr">
         <is>
           <t>Entrate</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr"/>
-      <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" t="n">
+      <c r="B7" s="11" t="inlineStr"/>
+      <c r="C7" s="12" t="inlineStr"/>
+      <c r="D7" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="n"/>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="13" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr"/>
-      <c r="D8" t="n">
+      <c r="C8" s="12" t="inlineStr">
+        <is>
+          <t>Totale vuoto =</t>
+        </is>
+      </c>
+      <c r="D8" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="B9" s="15" t="n"/>
+      <c r="C9" s="12" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
+      <c r="D9" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="17" t="n"/>
+      <c r="C10" s="18" t="n"/>
+      <c r="D10" s="16" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="17" t="n"/>
+      <c r="C11" s="18" t="n"/>
+      <c r="D11" s="16" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="17" t="n"/>
+      <c r="C12" s="18" t="n"/>
+      <c r="D12" s="16" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="17" t="n"/>
+      <c r="C13" s="18" t="n"/>
+      <c r="D13" s="16" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="7" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="C14" s="9" t="inlineStr">
+        <is>
+          <t>Totale Categoria =</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>Uscite</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr"/>
-      <c r="C15" s="3" t="inlineStr"/>
-      <c r="D15" t="n">
+      <c r="B15" s="11" t="inlineStr"/>
+      <c r="C15" s="12" t="inlineStr"/>
+      <c r="D15" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="n"/>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="13" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr"/>
-      <c r="D16" t="n">
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t>Totale vuoto =</t>
+        </is>
+      </c>
+      <c r="D16" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="B17" s="15" t="n"/>
+      <c r="C17" s="12" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="D17" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+      <c r="D22" s="20" t="n">
+        <v>2099.4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="19" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D24" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="19" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D26" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="19" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+      <c r="D28" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
+      <c r="D30" s="20" t="n">
+        <v>2798.2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1687,136 +3555,232 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:D17"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
+    <row r="1" ht="70" customHeight="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>maggio</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="7" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>Totale Categoria =</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="8" t="inlineStr">
         <is>
           <t>Entrate</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr"/>
-      <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" t="n">
+      <c r="B7" s="11" t="inlineStr"/>
+      <c r="C7" s="12" t="inlineStr"/>
+      <c r="D7" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="n"/>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="13" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr"/>
-      <c r="D8" t="n">
+      <c r="C8" s="12" t="inlineStr">
+        <is>
+          <t>Totale vuoto =</t>
+        </is>
+      </c>
+      <c r="D8" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="B9" s="15" t="n"/>
+      <c r="C9" s="12" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
+      <c r="D9" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="17" t="n"/>
+      <c r="C10" s="18" t="n"/>
+      <c r="D10" s="16" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="17" t="n"/>
+      <c r="C11" s="18" t="n"/>
+      <c r="D11" s="16" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="17" t="n"/>
+      <c r="C12" s="18" t="n"/>
+      <c r="D12" s="16" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="17" t="n"/>
+      <c r="C13" s="18" t="n"/>
+      <c r="D13" s="16" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="7" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="C14" s="9" t="inlineStr">
+        <is>
+          <t>Totale Categoria =</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>Uscite</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr"/>
-      <c r="C15" s="3" t="inlineStr"/>
-      <c r="D15" t="n">
+      <c r="B15" s="11" t="inlineStr"/>
+      <c r="C15" s="12" t="inlineStr"/>
+      <c r="D15" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="n"/>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="13" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr"/>
-      <c r="D16" t="n">
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t>Totale vuoto =</t>
+        </is>
+      </c>
+      <c r="D16" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="B17" s="15" t="n"/>
+      <c r="C17" s="12" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="D17" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+      <c r="D22" s="20" t="n">
+        <v>2798.2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="19" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D24" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="19" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D26" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="19" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+      <c r="D28" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
+      <c r="D30" s="20" t="n">
+        <v>3497</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1828,136 +3792,232 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:D17"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
+    <row r="1" ht="70" customHeight="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>giugno</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="7" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>Totale Categoria =</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="8" t="inlineStr">
         <is>
           <t>Entrate</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr"/>
-      <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" t="n">
+      <c r="B7" s="11" t="inlineStr"/>
+      <c r="C7" s="12" t="inlineStr"/>
+      <c r="D7" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="n"/>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="13" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr"/>
-      <c r="D8" t="n">
+      <c r="C8" s="12" t="inlineStr">
+        <is>
+          <t>Totale vuoto =</t>
+        </is>
+      </c>
+      <c r="D8" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="B9" s="15" t="n"/>
+      <c r="C9" s="12" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
+      <c r="D9" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="17" t="n"/>
+      <c r="C10" s="18" t="n"/>
+      <c r="D10" s="16" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="17" t="n"/>
+      <c r="C11" s="18" t="n"/>
+      <c r="D11" s="16" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="17" t="n"/>
+      <c r="C12" s="18" t="n"/>
+      <c r="D12" s="16" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="17" t="n"/>
+      <c r="C13" s="18" t="n"/>
+      <c r="D13" s="16" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="7" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="C14" s="9" t="inlineStr">
+        <is>
+          <t>Totale Categoria =</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>Uscite</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr"/>
-      <c r="C15" s="3" t="inlineStr"/>
-      <c r="D15" t="n">
+      <c r="B15" s="11" t="inlineStr"/>
+      <c r="C15" s="12" t="inlineStr"/>
+      <c r="D15" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="n"/>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="13" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr"/>
-      <c r="D16" t="n">
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t>Totale vuoto =</t>
+        </is>
+      </c>
+      <c r="D16" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="B17" s="15" t="n"/>
+      <c r="C17" s="12" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="D17" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+      <c r="D22" s="20" t="n">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="19" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D24" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="19" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D26" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="19" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+      <c r="D28" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
+      <c r="D30" s="20" t="n">
+        <v>4195.8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1969,136 +4029,232 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:D17"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
+    <row r="1" ht="70" customHeight="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>luglio</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="7" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>Totale Categoria =</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="8" t="inlineStr">
         <is>
           <t>Entrate</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr"/>
-      <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" t="n">
+      <c r="B7" s="11" t="inlineStr"/>
+      <c r="C7" s="12" t="inlineStr"/>
+      <c r="D7" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="n"/>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="13" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr"/>
-      <c r="D8" t="n">
+      <c r="C8" s="12" t="inlineStr">
+        <is>
+          <t>Totale vuoto =</t>
+        </is>
+      </c>
+      <c r="D8" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="B9" s="15" t="n"/>
+      <c r="C9" s="12" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
+      <c r="D9" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="17" t="n"/>
+      <c r="C10" s="18" t="n"/>
+      <c r="D10" s="16" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="17" t="n"/>
+      <c r="C11" s="18" t="n"/>
+      <c r="D11" s="16" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="17" t="n"/>
+      <c r="C12" s="18" t="n"/>
+      <c r="D12" s="16" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="17" t="n"/>
+      <c r="C13" s="18" t="n"/>
+      <c r="D13" s="16" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="7" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="C14" s="9" t="inlineStr">
+        <is>
+          <t>Totale Categoria =</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>Uscite</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr"/>
-      <c r="C15" s="3" t="inlineStr"/>
-      <c r="D15" t="n">
+      <c r="B15" s="11" t="inlineStr"/>
+      <c r="C15" s="12" t="inlineStr"/>
+      <c r="D15" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="n"/>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="13" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr"/>
-      <c r="D16" t="n">
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t>Totale vuoto =</t>
+        </is>
+      </c>
+      <c r="D16" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="B17" s="15" t="n"/>
+      <c r="C17" s="12" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="D17" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+      <c r="D22" s="20" t="n">
+        <v>4195.8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="19" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D24" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="19" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D26" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="19" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+      <c r="D28" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
+      <c r="D30" s="20" t="n">
+        <v>4894.6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2110,136 +4266,232 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:D17"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
+    <row r="1" ht="70" customHeight="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>agosto</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="7" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>Totale Categoria =</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="8" t="inlineStr">
         <is>
           <t>Entrate</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr"/>
-      <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" t="n">
+      <c r="B7" s="11" t="inlineStr"/>
+      <c r="C7" s="12" t="inlineStr"/>
+      <c r="D7" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="n"/>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="13" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr"/>
-      <c r="D8" t="n">
+      <c r="C8" s="12" t="inlineStr">
+        <is>
+          <t>Totale vuoto =</t>
+        </is>
+      </c>
+      <c r="D8" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="B9" s="15" t="n"/>
+      <c r="C9" s="12" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
+      <c r="D9" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="17" t="n"/>
+      <c r="C10" s="18" t="n"/>
+      <c r="D10" s="16" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="17" t="n"/>
+      <c r="C11" s="18" t="n"/>
+      <c r="D11" s="16" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="17" t="n"/>
+      <c r="C12" s="18" t="n"/>
+      <c r="D12" s="16" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="17" t="n"/>
+      <c r="C13" s="18" t="n"/>
+      <c r="D13" s="16" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="7" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="C14" s="9" t="inlineStr">
+        <is>
+          <t>Totale Categoria =</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>Uscite</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr"/>
-      <c r="C15" s="3" t="inlineStr"/>
-      <c r="D15" t="n">
+      <c r="B15" s="11" t="inlineStr"/>
+      <c r="C15" s="12" t="inlineStr"/>
+      <c r="D15" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="n"/>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="13" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr"/>
-      <c r="D16" t="n">
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t>Totale vuoto =</t>
+        </is>
+      </c>
+      <c r="D16" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="B17" s="15" t="n"/>
+      <c r="C17" s="12" t="inlineStr">
         <is>
           <t>vuoto</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="D17" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+      <c r="D22" s="20" t="n">
+        <v>4894.6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="19" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D24" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="19" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D26" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="19" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+      <c r="D28" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
+      <c r="D30" s="20" t="n">
+        <v>5593.400000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/conti_styled.xlsx
+++ b/conti_styled.xlsx
@@ -37,7 +37,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00€"/>
     <numFmt numFmtId="166" formatCode="-#,##0.00€"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -124,6 +124,9 @@
       <b val="1"/>
       <color rgb="00000000"/>
       <sz val="13"/>
+    </font>
+    <font>
+      <color rgb="00a81a1a"/>
     </font>
     <font>
       <color rgb="00000000"/>
@@ -236,14 +239,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="7" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="7" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -299,13 +302,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -317,7 +320,7 @@
     <xf numFmtId="165" fontId="13" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -327,19 +330,22 @@
     <xf numFmtId="164" fontId="14" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2037,7 +2043,7 @@
         </is>
       </c>
       <c r="D88" s="21" t="n">
-        <v>132842.0800000001</v>
+        <v>-58052.8</v>
       </c>
     </row>
     <row r="90">
@@ -2046,7 +2052,7 @@
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="D90" s="21" t="n">
+      <c r="D90" s="22" t="n">
         <v>12129.96</v>
       </c>
     </row>
@@ -2056,7 +2062,7 @@
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="D92" s="22" t="n">
+      <c r="D92" s="23" t="n">
         <v>8247.740000000002</v>
       </c>
     </row>
@@ -2066,7 +2072,7 @@
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="D94" s="21" t="n">
+      <c r="D94" s="22" t="n">
         <v>3882.219999999998</v>
       </c>
     </row>
@@ -2077,7 +2083,7 @@
         </is>
       </c>
       <c r="D96" s="21" t="n">
-        <v>124447.3400000001</v>
+        <v>-54170.58</v>
       </c>
     </row>
   </sheetData>
@@ -3196,7 +3202,7 @@
         </is>
       </c>
       <c r="D90" s="21" t="n">
-        <v>124447.3400000001</v>
+        <v>-54170.58</v>
       </c>
     </row>
     <row r="92">
@@ -3205,7 +3211,7 @@
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="D92" s="21" t="n">
+      <c r="D92" s="22" t="n">
         <v>13373.44</v>
       </c>
     </row>
@@ -3215,7 +3221,7 @@
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="D94" s="22" t="n">
+      <c r="D94" s="23" t="n">
         <v>16905.13</v>
       </c>
     </row>
@@ -3225,7 +3231,7 @@
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="D96" s="23" t="n">
+      <c r="D96" s="21" t="n">
         <v>-3531.689999999999</v>
       </c>
     </row>
@@ -3236,7 +3242,7 @@
         </is>
       </c>
       <c r="D98" s="21" t="n">
-        <v>116052.6000000001</v>
+        <v>-57702.27</v>
       </c>
     </row>
   </sheetData>
@@ -4511,7 +4517,7 @@
         </is>
       </c>
       <c r="D102" s="21" t="n">
-        <v>116052.6000000001</v>
+        <v>-57702.27</v>
       </c>
     </row>
     <row r="104">
@@ -4520,7 +4526,7 @@
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="D104" s="21" t="n">
+      <c r="D104" s="22" t="n">
         <v>17415.43</v>
       </c>
     </row>
@@ -4530,7 +4536,7 @@
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="D106" s="22" t="n">
+      <c r="D106" s="23" t="n">
         <v>16645.01</v>
       </c>
     </row>
@@ -4540,7 +4546,7 @@
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="D108" s="21" t="n">
+      <c r="D108" s="22" t="n">
         <v>770.4200000000019</v>
       </c>
     </row>
@@ -4551,7 +4557,7 @@
         </is>
       </c>
       <c r="D110" s="21" t="n">
-        <v>107657.8600000001</v>
+        <v>-56931.84999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5708,7 +5714,7 @@
         </is>
       </c>
       <c r="D93" s="21" t="n">
-        <v>107657.8600000001</v>
+        <v>-56931.84999999999</v>
       </c>
     </row>
     <row r="95">
@@ -5717,7 +5723,7 @@
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="D95" s="21" t="n">
+      <c r="D95" s="22" t="n">
         <v>18110.48</v>
       </c>
     </row>
@@ -5727,7 +5733,7 @@
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="D97" s="22" t="n">
+      <c r="D97" s="23" t="n">
         <v>34245.8</v>
       </c>
     </row>
@@ -5737,7 +5743,7 @@
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="D99" s="23" t="n">
+      <c r="D99" s="21" t="n">
         <v>-16135.32</v>
       </c>
     </row>
@@ -5748,7 +5754,7 @@
         </is>
       </c>
       <c r="D101" s="21" t="n">
-        <v>99263.12000000011</v>
+        <v>-73067.16999999998</v>
       </c>
     </row>
   </sheetData>
@@ -6625,7 +6631,7 @@
         <v>135</v>
       </c>
       <c r="C5" t="n">
-        <v>244</v>
+        <v>244.6</v>
       </c>
       <c r="D5" t="n">
         <v>173</v>
@@ -6658,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>931</v>
+        <v>931.6</v>
       </c>
     </row>
     <row r="6" ht="17" customHeight="1">
@@ -7361,7 +7367,7 @@
         <v>15000.32</v>
       </c>
       <c r="C21" t="n">
-        <v>14021.61</v>
+        <v>14022.21</v>
       </c>
       <c r="D21" t="n">
         <v>34245.8</v>
@@ -7394,7 +7400,7 @@
         <v>8247.74</v>
       </c>
       <c r="N21" s="26" t="n">
-        <v>232189.49</v>
+        <v>232190.09</v>
       </c>
     </row>
   </sheetData>
@@ -7468,7 +7474,7 @@
         </is>
       </c>
       <c r="B3" s="30" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="C3" s="31" t="n">
         <v>13787.25</v>
@@ -7476,8 +7482,8 @@
       <c r="D3" s="31" t="n">
         <v>22181.99</v>
       </c>
-      <c r="E3" s="31" t="n">
-        <v>191605.26</v>
+      <c r="E3" s="32" t="n">
+        <v>-8394.739999999998</v>
       </c>
     </row>
     <row r="4">
@@ -7486,8 +7492,8 @@
           <t>febbraio</t>
         </is>
       </c>
-      <c r="B4" s="31" t="n">
-        <v>191605.26</v>
+      <c r="B4" s="32" t="n">
+        <v>-8394.739999999998</v>
       </c>
       <c r="C4" s="31" t="n">
         <v>14425.08</v>
@@ -7495,8 +7501,8 @@
       <c r="D4" s="31" t="n">
         <v>29294.45</v>
       </c>
-      <c r="E4" s="31" t="n">
-        <v>183210.52</v>
+      <c r="E4" s="32" t="n">
+        <v>-23264.11</v>
       </c>
     </row>
     <row r="5">
@@ -7505,8 +7511,8 @@
           <t>marzo</t>
         </is>
       </c>
-      <c r="B5" s="31" t="n">
-        <v>183210.52</v>
+      <c r="B5" s="32" t="n">
+        <v>-23264.11</v>
       </c>
       <c r="C5" s="31" t="n">
         <v>10731.84</v>
@@ -7514,8 +7520,8 @@
       <c r="D5" s="31" t="n">
         <v>10486.2</v>
       </c>
-      <c r="E5" s="31" t="n">
-        <v>174815.78</v>
+      <c r="E5" s="32" t="n">
+        <v>-23018.47</v>
       </c>
     </row>
     <row r="6">
@@ -7524,17 +7530,17 @@
           <t>aprile</t>
         </is>
       </c>
-      <c r="B6" s="31" t="n">
-        <v>174815.78</v>
+      <c r="B6" s="32" t="n">
+        <v>-23018.47</v>
       </c>
       <c r="C6" s="31" t="n">
         <v>16072.87</v>
       </c>
       <c r="D6" s="31" t="n">
-        <v>14021.61</v>
-      </c>
-      <c r="E6" s="31" t="n">
-        <v>166421.04</v>
+        <v>14022.21</v>
+      </c>
+      <c r="E6" s="32" t="n">
+        <v>-20967.81</v>
       </c>
     </row>
     <row r="7">
@@ -7543,8 +7549,8 @@
           <t>maggio</t>
         </is>
       </c>
-      <c r="B7" s="31" t="n">
-        <v>166421.04</v>
+      <c r="B7" s="32" t="n">
+        <v>-20967.81</v>
       </c>
       <c r="C7" s="31" t="n">
         <v>8779.559999999999</v>
@@ -7552,8 +7558,8 @@
       <c r="D7" s="31" t="n">
         <v>37892.56</v>
       </c>
-      <c r="E7" s="31" t="n">
-        <v>158026.3</v>
+      <c r="E7" s="32" t="n">
+        <v>-50080.81</v>
       </c>
     </row>
     <row r="8">
@@ -7562,8 +7568,8 @@
           <t>giugno</t>
         </is>
       </c>
-      <c r="B8" s="31" t="n">
-        <v>158026.3</v>
+      <c r="B8" s="32" t="n">
+        <v>-50080.81</v>
       </c>
       <c r="C8" s="31" t="n">
         <v>12989.57</v>
@@ -7571,8 +7577,8 @@
       <c r="D8" s="31" t="n">
         <v>14117.1</v>
       </c>
-      <c r="E8" s="31" t="n">
-        <v>149631.5600000001</v>
+      <c r="E8" s="32" t="n">
+        <v>-51208.34</v>
       </c>
     </row>
     <row r="9">
@@ -7581,8 +7587,8 @@
           <t>luglio</t>
         </is>
       </c>
-      <c r="B9" s="31" t="n">
-        <v>149631.5600000001</v>
+      <c r="B9" s="32" t="n">
+        <v>-51208.34</v>
       </c>
       <c r="C9" s="31" t="n">
         <v>9483.110000000001</v>
@@ -7590,8 +7596,8 @@
       <c r="D9" s="31" t="n">
         <v>13151.58</v>
       </c>
-      <c r="E9" s="31" t="n">
-        <v>141236.8200000001</v>
+      <c r="E9" s="32" t="n">
+        <v>-54876.81</v>
       </c>
     </row>
     <row r="10">
@@ -7600,8 +7606,8 @@
           <t>agosto</t>
         </is>
       </c>
-      <c r="B10" s="31" t="n">
-        <v>141236.8200000001</v>
+      <c r="B10" s="32" t="n">
+        <v>-54876.81</v>
       </c>
       <c r="C10" s="31" t="n">
         <v>11824.33</v>
@@ -7609,8 +7615,8 @@
       <c r="D10" s="31" t="n">
         <v>15000.32</v>
       </c>
-      <c r="E10" s="31" t="n">
-        <v>132842.0800000001</v>
+      <c r="E10" s="32" t="n">
+        <v>-58052.8</v>
       </c>
     </row>
     <row r="11">
@@ -7619,8 +7625,8 @@
           <t>settembre</t>
         </is>
       </c>
-      <c r="B11" s="31" t="n">
-        <v>132842.0800000001</v>
+      <c r="B11" s="32" t="n">
+        <v>-58052.8</v>
       </c>
       <c r="C11" s="31" t="n">
         <v>12129.96</v>
@@ -7628,8 +7634,8 @@
       <c r="D11" s="31" t="n">
         <v>8247.740000000002</v>
       </c>
-      <c r="E11" s="31" t="n">
-        <v>124447.3400000001</v>
+      <c r="E11" s="32" t="n">
+        <v>-54170.58</v>
       </c>
     </row>
     <row r="12">
@@ -7638,8 +7644,8 @@
           <t>ottobre</t>
         </is>
       </c>
-      <c r="B12" s="31" t="n">
-        <v>124447.3400000001</v>
+      <c r="B12" s="32" t="n">
+        <v>-54170.58</v>
       </c>
       <c r="C12" s="31" t="n">
         <v>13373.44</v>
@@ -7647,8 +7653,8 @@
       <c r="D12" s="31" t="n">
         <v>16905.13</v>
       </c>
-      <c r="E12" s="31" t="n">
-        <v>116052.6000000001</v>
+      <c r="E12" s="32" t="n">
+        <v>-57702.27</v>
       </c>
     </row>
     <row r="13">
@@ -7657,8 +7663,8 @@
           <t>novembre</t>
         </is>
       </c>
-      <c r="B13" s="31" t="n">
-        <v>116052.6000000001</v>
+      <c r="B13" s="32" t="n">
+        <v>-57702.27</v>
       </c>
       <c r="C13" s="31" t="n">
         <v>17415.43</v>
@@ -7666,8 +7672,8 @@
       <c r="D13" s="31" t="n">
         <v>16645.01</v>
       </c>
-      <c r="E13" s="31" t="n">
-        <v>107657.8600000001</v>
+      <c r="E13" s="32" t="n">
+        <v>-56931.84999999999</v>
       </c>
     </row>
     <row r="14">
@@ -7676,8 +7682,8 @@
           <t>dicembre</t>
         </is>
       </c>
-      <c r="B14" s="31" t="n">
-        <v>107657.8600000001</v>
+      <c r="B14" s="32" t="n">
+        <v>-56931.84999999999</v>
       </c>
       <c r="C14" s="31" t="n">
         <v>18110.48</v>
@@ -7686,7 +7692,7 @@
         <v>34245.8</v>
       </c>
       <c r="E14" s="30" t="n">
-        <v>99263.12000000011</v>
+        <v>-73067.16999999998</v>
       </c>
     </row>
   </sheetData>
@@ -7713,7 +7719,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" ht="45" customHeight="1">
-      <c r="A1" s="32" t="inlineStr">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>Bilancio Anno ...</t>
         </is>
@@ -7727,85 +7733,85 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="33" t="inlineStr">
+      <c r="A10" s="34" t="inlineStr">
         <is>
           <t>SALDO iniziale</t>
         </is>
       </c>
-      <c r="E10" s="34" t="n">
-        <v>200000</v>
+      <c r="E10" s="35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="33" t="inlineStr">
+      <c r="A13" s="34" t="inlineStr">
         <is>
           <t>TOTALE Entrate</t>
         </is>
       </c>
-      <c r="E13" s="34" t="n">
+      <c r="E13" s="35" t="n">
         <v>159122.92</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="33" t="inlineStr">
+      <c r="A16" s="34" t="inlineStr">
         <is>
           <t>TOTALE Uscite</t>
         </is>
       </c>
-      <c r="E16" s="34" t="n">
-        <v>232189.49</v>
+      <c r="E16" s="35" t="n">
+        <v>232190.09</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="33" t="inlineStr">
+      <c r="A19" s="34" t="inlineStr">
         <is>
           <t>DIS/AVANZO</t>
         </is>
       </c>
-      <c r="E19" s="34" t="n">
-        <v>-73066.56999999998</v>
+      <c r="E19" s="35" t="n">
+        <v>-73067.16999999998</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="33" t="inlineStr">
+      <c r="A22" s="34" t="inlineStr">
         <is>
           <t>SALDO Finale</t>
         </is>
       </c>
-      <c r="E22" s="34" t="n">
-        <v>99263.12000000011</v>
+      <c r="E22" s="35" t="n">
+        <v>-73067.16999999998</v>
       </c>
     </row>
     <row r="29">
-      <c r="D29" s="35" t="inlineStr">
+      <c r="D29" s="36" t="inlineStr">
         <is>
           <t>Guardiano</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="35" t="inlineStr">
+      <c r="A32" s="36" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="D35" s="35" t="inlineStr">
+      <c r="D35" s="36" t="inlineStr">
         <is>
           <t>Vicario</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="35" t="inlineStr">
+      <c r="A38" s="36" t="inlineStr">
         <is>
           <t>Timbro</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="D41" s="35" t="inlineStr">
+      <c r="D41" s="36" t="inlineStr">
         <is>
           <t>Economo</t>
         </is>
@@ -9061,7 +9067,7 @@
         </is>
       </c>
       <c r="D102" s="21" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -9070,7 +9076,7 @@
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="D104" s="21" t="n">
+      <c r="D104" s="22" t="n">
         <v>13787.25</v>
       </c>
     </row>
@@ -9080,7 +9086,7 @@
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="D106" s="22" t="n">
+      <c r="D106" s="23" t="n">
         <v>22181.99</v>
       </c>
     </row>
@@ -9090,7 +9096,7 @@
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="D108" s="23" t="n">
+      <c r="D108" s="21" t="n">
         <v>-8394.739999999998</v>
       </c>
     </row>
@@ -9101,7 +9107,7 @@
         </is>
       </c>
       <c r="D110" s="21" t="n">
-        <v>191605.26</v>
+        <v>-8394.739999999998</v>
       </c>
     </row>
   </sheetData>
@@ -10215,7 +10221,7 @@
         </is>
       </c>
       <c r="D90" s="21" t="n">
-        <v>191605.26</v>
+        <v>-8394.739999999998</v>
       </c>
     </row>
     <row r="92">
@@ -10224,7 +10230,7 @@
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="D92" s="21" t="n">
+      <c r="D92" s="22" t="n">
         <v>14425.08</v>
       </c>
     </row>
@@ -10234,7 +10240,7 @@
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="D94" s="22" t="n">
+      <c r="D94" s="23" t="n">
         <v>29294.45</v>
       </c>
     </row>
@@ -10244,7 +10250,7 @@
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="D96" s="23" t="n">
+      <c r="D96" s="21" t="n">
         <v>-14869.37</v>
       </c>
     </row>
@@ -10255,7 +10261,7 @@
         </is>
       </c>
       <c r="D98" s="21" t="n">
-        <v>183210.52</v>
+        <v>-23264.11</v>
       </c>
     </row>
   </sheetData>
@@ -11196,7 +11202,7 @@
         </is>
       </c>
       <c r="D77" s="21" t="n">
-        <v>183210.52</v>
+        <v>-23264.11</v>
       </c>
     </row>
     <row r="79">
@@ -11205,7 +11211,7 @@
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="D79" s="21" t="n">
+      <c r="D79" s="22" t="n">
         <v>10731.84</v>
       </c>
     </row>
@@ -11215,7 +11221,7 @@
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="D81" s="22" t="n">
+      <c r="D81" s="23" t="n">
         <v>10486.2</v>
       </c>
     </row>
@@ -11225,7 +11231,7 @@
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="D83" s="21" t="n">
+      <c r="D83" s="22" t="n">
         <v>245.6399999999994</v>
       </c>
     </row>
@@ -11236,7 +11242,7 @@
         </is>
       </c>
       <c r="D85" s="21" t="n">
-        <v>174815.78</v>
+        <v>-23018.47</v>
       </c>
     </row>
   </sheetData>
@@ -11727,7 +11733,7 @@
       <c r="B39" s="11" t="inlineStr"/>
       <c r="C39" s="12" t="inlineStr"/>
       <c r="D39" s="10" t="n">
-        <v>14021.61</v>
+        <v>14022.21</v>
       </c>
     </row>
     <row r="40">
@@ -11783,7 +11789,7 @@
         </is>
       </c>
       <c r="D43" s="14" t="n">
-        <v>244</v>
+        <v>244.6</v>
       </c>
     </row>
     <row r="44">
@@ -11795,7 +11801,7 @@
         </is>
       </c>
       <c r="D44" s="16" t="n">
-        <v>114</v>
+        <v>114.6</v>
       </c>
     </row>
     <row r="45">
@@ -12409,7 +12415,7 @@
         </is>
       </c>
       <c r="D95" s="21" t="n">
-        <v>174815.78</v>
+        <v>-23018.47</v>
       </c>
     </row>
     <row r="97">
@@ -12418,7 +12424,7 @@
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="D97" s="21" t="n">
+      <c r="D97" s="22" t="n">
         <v>16072.87</v>
       </c>
     </row>
@@ -12428,8 +12434,8 @@
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="D99" s="22" t="n">
-        <v>14021.61</v>
+      <c r="D99" s="23" t="n">
+        <v>14022.21</v>
       </c>
     </row>
     <row r="101">
@@ -12438,8 +12444,8 @@
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="D101" s="21" t="n">
-        <v>2051.26</v>
+      <c r="D101" s="22" t="n">
+        <v>2050.660000000002</v>
       </c>
     </row>
     <row r="103">
@@ -12449,7 +12455,7 @@
         </is>
       </c>
       <c r="D103" s="21" t="n">
-        <v>166421.04</v>
+        <v>-20967.81</v>
       </c>
     </row>
   </sheetData>
@@ -13447,7 +13453,7 @@
         </is>
       </c>
       <c r="D81" s="21" t="n">
-        <v>166421.04</v>
+        <v>-20967.81</v>
       </c>
     </row>
     <row r="83">
@@ -13456,7 +13462,7 @@
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="D83" s="21" t="n">
+      <c r="D83" s="22" t="n">
         <v>8779.559999999999</v>
       </c>
     </row>
@@ -13466,7 +13472,7 @@
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="D85" s="22" t="n">
+      <c r="D85" s="23" t="n">
         <v>37892.56</v>
       </c>
     </row>
@@ -13476,7 +13482,7 @@
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="D87" s="23" t="n">
+      <c r="D87" s="21" t="n">
         <v>-29113</v>
       </c>
     </row>
@@ -13487,7 +13493,7 @@
         </is>
       </c>
       <c r="D89" s="21" t="n">
-        <v>158026.3</v>
+        <v>-50080.81</v>
       </c>
     </row>
   </sheetData>
@@ -14638,7 +14644,7 @@
         </is>
       </c>
       <c r="D93" s="21" t="n">
-        <v>158026.3</v>
+        <v>-50080.81</v>
       </c>
     </row>
     <row r="95">
@@ -14647,7 +14653,7 @@
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="D95" s="21" t="n">
+      <c r="D95" s="22" t="n">
         <v>12989.57</v>
       </c>
     </row>
@@ -14657,7 +14663,7 @@
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="D97" s="22" t="n">
+      <c r="D97" s="23" t="n">
         <v>14117.1</v>
       </c>
     </row>
@@ -14667,7 +14673,7 @@
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="D99" s="23" t="n">
+      <c r="D99" s="21" t="n">
         <v>-1127.530000000001</v>
       </c>
     </row>
@@ -14678,7 +14684,7 @@
         </is>
       </c>
       <c r="D101" s="21" t="n">
-        <v>149631.5600000001</v>
+        <v>-51208.34</v>
       </c>
     </row>
   </sheetData>
@@ -15664,7 +15670,7 @@
         </is>
       </c>
       <c r="D80" s="21" t="n">
-        <v>149631.5600000001</v>
+        <v>-51208.34</v>
       </c>
     </row>
     <row r="82">
@@ -15673,7 +15679,7 @@
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="D82" s="21" t="n">
+      <c r="D82" s="22" t="n">
         <v>9483.110000000001</v>
       </c>
     </row>
@@ -15683,7 +15689,7 @@
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="D84" s="22" t="n">
+      <c r="D84" s="23" t="n">
         <v>13151.58</v>
       </c>
     </row>
@@ -15693,7 +15699,7 @@
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="D86" s="23" t="n">
+      <c r="D86" s="21" t="n">
         <v>-3668.469999999999</v>
       </c>
     </row>
@@ -15704,7 +15710,7 @@
         </is>
       </c>
       <c r="D88" s="21" t="n">
-        <v>141236.8200000001</v>
+        <v>-54876.81</v>
       </c>
     </row>
   </sheetData>
@@ -16823,7 +16829,7 @@
         </is>
       </c>
       <c r="D91" s="21" t="n">
-        <v>141236.8200000001</v>
+        <v>-54876.81</v>
       </c>
     </row>
     <row r="93">
@@ -16832,7 +16838,7 @@
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="D93" s="21" t="n">
+      <c r="D93" s="22" t="n">
         <v>11824.33</v>
       </c>
     </row>
@@ -16842,7 +16848,7 @@
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="D95" s="22" t="n">
+      <c r="D95" s="23" t="n">
         <v>15000.32</v>
       </c>
     </row>
@@ -16852,7 +16858,7 @@
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="D97" s="23" t="n">
+      <c r="D97" s="21" t="n">
         <v>-3175.99</v>
       </c>
     </row>
@@ -16863,7 +16869,7 @@
         </is>
       </c>
       <c r="D99" s="21" t="n">
-        <v>132842.0800000001</v>
+        <v>-58052.8</v>
       </c>
     </row>
   </sheetData>
